--- a/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/50/Output_0_27.xlsx
+++ b/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/50/Output_0_27.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1912568.31007089</v>
+        <v>1912167.222453802</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>244709.4606773129</v>
+        <v>244709.4606773132</v>
       </c>
     </row>
     <row r="8">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>9361237.205795515</v>
+        <v>9361237.205795517</v>
       </c>
     </row>
     <row r="11">
@@ -656,28 +656,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>390.1031041228389</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>378.1144210805207</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>390.8378626949542</v>
       </c>
       <c r="F2" t="n">
         <v>10.00967878293136</v>
       </c>
       <c r="G2" t="n">
-        <v>411.9429466803539</v>
+        <v>11.94294668035388</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>329.4930616586638</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>171.0890268032919</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -704,22 +704,22 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>89.73190363910518</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
         <v>185.3566856159496</v>
       </c>
       <c r="T2" t="n">
-        <v>222.1153568062989</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>252.3364829231459</v>
       </c>
       <c r="V2" t="n">
-        <v>333.6094813630181</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>44.38514589869277</v>
+        <v>210.4106195925229</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
@@ -735,13 +735,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>157.8252483534483</v>
+        <v>132.6439588117421</v>
       </c>
       <c r="C3" t="n">
         <v>160.0866360314548</v>
       </c>
       <c r="D3" t="n">
-        <v>88.86611565078036</v>
+        <v>137.45025063969</v>
       </c>
       <c r="E3" t="n">
         <v>0</v>
@@ -750,10 +750,10 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>127.4412149769483</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>98.93847887876893</v>
       </c>
       <c r="I3" t="n">
         <v>67.69846245683961</v>
@@ -783,7 +783,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>59.18642621600367</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
         <v>151.2714921173871</v>
@@ -804,7 +804,7 @@
         <v>195.9378182409833</v>
       </c>
       <c r="Y3" t="n">
-        <v>190.5961130869169</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -814,25 +814,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>129.8789034869586</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>167.9198098429365</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>151.5411742405149</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>150.4889240962943</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>150.9558484244806</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>73.75270603218316</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -880,7 +880,7 @@
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>228.939939463578</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -893,19 +893,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>390.1031041228389</v>
+        <v>1.380312394804075</v>
       </c>
       <c r="C5" t="n">
         <v>378.1144210805207</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>369.0957251250487</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>390.8378626949542</v>
       </c>
       <c r="F5" t="n">
-        <v>10.00967878293136</v>
+        <v>410.0096787829314</v>
       </c>
       <c r="G5" t="n">
         <v>11.94294668035388</v>
@@ -941,28 +941,28 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>89.73190363910518</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>185.3566856159496</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>151.1161276776962</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>333.6094813630181</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>378.2098390737216</v>
       </c>
       <c r="Y5" t="n">
-        <v>389.6064368699203</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -981,19 +981,19 @@
         <v>137.45025063969</v>
       </c>
       <c r="E6" t="n">
-        <v>145.5577298436975</v>
+        <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>0</v>
+        <v>133.3468600696244</v>
       </c>
       <c r="G6" t="n">
-        <v>127.4412149769483</v>
+        <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>98.93847887876893</v>
+        <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>67.69846245683961</v>
+        <v>0</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1023,10 +1023,10 @@
         <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>0</v>
+        <v>151.2714921173871</v>
       </c>
       <c r="T6" t="n">
-        <v>0</v>
+        <v>131.7521464099839</v>
       </c>
       <c r="U6" t="n">
         <v>216.3098444776729</v>
@@ -1035,7 +1035,7 @@
         <v>226.1116663261494</v>
       </c>
       <c r="W6" t="n">
-        <v>215.6373225197645</v>
+        <v>238.9027100790231</v>
       </c>
       <c r="X6" t="n">
         <v>195.9378182409833</v>
@@ -1051,10 +1051,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>49.49874994150275</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>167.9198098429365</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
         <v>151.5411742405149</v>
@@ -1069,7 +1069,7 @@
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>157.7789187685189</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
@@ -1105,10 +1105,10 @@
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>230.8471636524779</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>144.3503149004803</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -1133,16 +1133,16 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>378.1144210805207</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>111.3687973043213</v>
       </c>
       <c r="E8" t="n">
-        <v>70.69321592350323</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>410.0096787829314</v>
+        <v>10.00967878293136</v>
       </c>
       <c r="G8" t="n">
         <v>11.94294668035388</v>
@@ -1178,25 +1178,25 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>89.73190363910518</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>222.1153568062989</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>252.3364829231459</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>333.6094813630181</v>
       </c>
       <c r="W8" t="n">
-        <v>358.909580840975</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>378.2098390737216</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>389.6064368699203</v>
@@ -1215,10 +1215,10 @@
         <v>160.0866360314548</v>
       </c>
       <c r="D9" t="n">
-        <v>0</v>
+        <v>137.45025063969</v>
       </c>
       <c r="E9" t="n">
-        <v>145.5577298436975</v>
+        <v>0</v>
       </c>
       <c r="F9" t="n">
         <v>133.3468600696244</v>
@@ -1257,10 +1257,10 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0</v>
+        <v>59.18642621600367</v>
       </c>
       <c r="S9" t="n">
-        <v>0</v>
+        <v>151.2714921173871</v>
       </c>
       <c r="T9" t="n">
         <v>186.7982527956746</v>
@@ -1272,13 +1272,13 @@
         <v>226.1116663261494</v>
       </c>
       <c r="W9" t="n">
-        <v>131.9483379309953</v>
+        <v>238.9027100790231</v>
       </c>
       <c r="X9" t="n">
-        <v>195.9378182409833</v>
+        <v>0</v>
       </c>
       <c r="Y9" t="n">
-        <v>190.5961130869169</v>
+        <v>77.22912005048893</v>
       </c>
     </row>
     <row r="10">
@@ -1288,19 +1288,19 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>181.719814997536</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.9198098429365</v>
       </c>
       <c r="D10" t="n">
-        <v>43.57406527516211</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
         <v>150.4889240962943</v>
       </c>
       <c r="F10" t="n">
-        <v>150.9558484244806</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
@@ -1357,7 +1357,7 @@
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>208.3299188542423</v>
       </c>
     </row>
     <row r="11">
@@ -1385,10 +1385,10 @@
         <v>302.021801156572</v>
       </c>
       <c r="H11" t="n">
-        <v>185.1482783917647</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>61.16788127951006</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1418,25 +1418,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>75.43554009216768</v>
       </c>
       <c r="T11" t="n">
         <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>142.415337399364</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>223.6883358392362</v>
       </c>
       <c r="W11" t="n">
         <v>248.9884353171931</v>
       </c>
       <c r="X11" t="n">
-        <v>268.2886935499397</v>
+        <v>230.4151686775651</v>
       </c>
       <c r="Y11" t="n">
-        <v>279.6852913461385</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -1464,10 +1464,10 @@
         <v>127.4412149769483</v>
       </c>
       <c r="H12" t="n">
-        <v>9.973562680739576</v>
+        <v>98.93847887876893</v>
       </c>
       <c r="I12" t="n">
-        <v>67.69846245683961</v>
+        <v>0</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1500,7 +1500,7 @@
         <v>151.2714921173871</v>
       </c>
       <c r="T12" t="n">
-        <v>186.7982527956746</v>
+        <v>165.5317990544854</v>
       </c>
       <c r="U12" t="n">
         <v>216.3098444776729</v>
@@ -1528,10 +1528,10 @@
         <v>71.79866947375413</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>57.99866431915461</v>
       </c>
       <c r="D13" t="n">
-        <v>15.96084939116402</v>
+        <v>41.620028716733</v>
       </c>
       <c r="E13" t="n">
         <v>40.56777857251245</v>
@@ -1576,7 +1576,7 @@
         <v>38.10541804798368</v>
       </c>
       <c r="S13" t="n">
-        <v>101.6515194465674</v>
+        <v>17.99367580184354</v>
       </c>
       <c r="T13" t="n">
         <v>120.9260181286961</v>
@@ -1607,7 +1607,7 @@
         <v>280.1819585990571</v>
       </c>
       <c r="C14" t="n">
-        <v>268.1932755567388</v>
+        <v>17.05130347492165</v>
       </c>
       <c r="D14" t="n">
         <v>0</v>
@@ -1622,7 +1622,7 @@
         <v>302.021801156572</v>
       </c>
       <c r="H14" t="n">
-        <v>176.320385099291</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
         <v>61.16788127951006</v>
@@ -1655,19 +1655,19 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>75.43554009216768</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>112.194211282517</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>142.415337399364</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>223.6883358392362</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>248.9884353171931</v>
       </c>
       <c r="X14" t="n">
         <v>268.2886935499397</v>
@@ -1686,7 +1686,7 @@
         <v>157.8252483534483</v>
       </c>
       <c r="C15" t="n">
-        <v>160.0866360314548</v>
+        <v>71.12171983342589</v>
       </c>
       <c r="D15" t="n">
         <v>137.45025063969</v>
@@ -1704,7 +1704,7 @@
         <v>98.93847887876893</v>
       </c>
       <c r="I15" t="n">
-        <v>37.91997247481436</v>
+        <v>67.69846245683961</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1731,7 +1731,7 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>59.18642621600367</v>
       </c>
       <c r="S15" t="n">
         <v>151.2714921173871</v>
@@ -1768,22 +1768,22 @@
         <v>57.99866431915461</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>41.620028716733</v>
       </c>
       <c r="E16" t="n">
         <v>40.56777857251245</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>38.07450093027888</v>
       </c>
       <c r="G16" t="n">
         <v>57.3094056220466</v>
       </c>
       <c r="H16" t="n">
-        <v>47.85777324473702</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>32.83986842956637</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1822,7 +1822,7 @@
         <v>174.3971915920092</v>
       </c>
       <c r="V16" t="n">
-        <v>147.2036938460883</v>
+        <v>148.2068058733797</v>
       </c>
       <c r="W16" t="n">
         <v>173.373691943993</v>
@@ -1847,7 +1847,7 @@
         <v>207.0253942772287</v>
       </c>
       <c r="D17" t="n">
-        <v>198.0066983217564</v>
+        <v>198.0066983217567</v>
       </c>
       <c r="E17" t="n">
         <v>219.7488358916623</v>
@@ -1923,7 +1923,7 @@
         <v>157.8252483534483</v>
       </c>
       <c r="C18" t="n">
-        <v>160.0866360314548</v>
+        <v>130.3081460494291</v>
       </c>
       <c r="D18" t="n">
         <v>137.45025063969</v>
@@ -1968,7 +1968,7 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>59.18642621600367</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
         <v>151.2714921173871</v>
@@ -1989,7 +1989,7 @@
         <v>195.9378182409833</v>
       </c>
       <c r="Y18" t="n">
-        <v>101.6311968888876</v>
+        <v>190.5961130869169</v>
       </c>
     </row>
     <row r="19">
@@ -2141,7 +2141,7 @@
         <v>162.5204545597261</v>
       </c>
       <c r="W20" t="n">
-        <v>187.820554037683</v>
+        <v>187.8205540376837</v>
       </c>
       <c r="X20" t="n">
         <v>207.1208122704296</v>
@@ -2178,7 +2178,7 @@
         <v>98.93847887876893</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>67.69846245683961</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2205,10 +2205,10 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>37.91997247481434</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
-        <v>151.2714921173871</v>
+        <v>121.493002135362</v>
       </c>
       <c r="T21" t="n">
         <v>186.7982527956746</v>
@@ -2397,7 +2397,7 @@
         <v>157.8252483534483</v>
       </c>
       <c r="C24" t="n">
-        <v>71.12171983342544</v>
+        <v>160.0866360314548</v>
       </c>
       <c r="D24" t="n">
         <v>137.45025063969</v>
@@ -2412,7 +2412,7 @@
         <v>127.4412149769483</v>
       </c>
       <c r="H24" t="n">
-        <v>98.93847887876893</v>
+        <v>9.973562680739576</v>
       </c>
       <c r="I24" t="n">
         <v>67.69846245683961</v>
@@ -2555,7 +2555,7 @@
         <v>276.6729386146302</v>
       </c>
       <c r="C26" t="n">
-        <v>0</v>
+        <v>264.6842555723119</v>
       </c>
       <c r="D26" t="n">
         <v>255.6655596168399</v>
@@ -2570,10 +2570,10 @@
         <v>298.5127811721451</v>
       </c>
       <c r="H26" t="n">
-        <v>216.0628961504551</v>
+        <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>57.6588612950832</v>
+        <v>57.65886129508321</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2603,19 +2603,19 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>71.92652010774083</v>
+        <v>0</v>
       </c>
       <c r="T26" t="n">
         <v>108.6851912980902</v>
       </c>
       <c r="U26" t="n">
-        <v>138.9063174149371</v>
+        <v>138.9063174149372</v>
       </c>
       <c r="V26" t="n">
-        <v>220.1793158548093</v>
+        <v>182.5887401592022</v>
       </c>
       <c r="W26" t="n">
-        <v>184.5836789512753</v>
+        <v>245.4794153327662</v>
       </c>
       <c r="X26" t="n">
         <v>264.7796735655128</v>
@@ -2640,7 +2640,7 @@
         <v>137.45025063969</v>
       </c>
       <c r="E27" t="n">
-        <v>130.9922385581939</v>
+        <v>145.5577298436975</v>
       </c>
       <c r="F27" t="n">
         <v>133.3468600696244</v>
@@ -2679,7 +2679,7 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>59.18642621600367</v>
+        <v>44.62093493050052</v>
       </c>
       <c r="S27" t="n">
         <v>151.2714921173871</v>
@@ -2710,28 +2710,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>68.28964948932727</v>
+        <v>68.28964948932729</v>
       </c>
       <c r="C28" t="n">
-        <v>54.48964433472776</v>
+        <v>54.48964433472777</v>
       </c>
       <c r="D28" t="n">
-        <v>38.11100873230615</v>
+        <v>38.11100873230616</v>
       </c>
       <c r="E28" t="n">
-        <v>37.0587585880856</v>
+        <v>37.05875858808561</v>
       </c>
       <c r="F28" t="n">
-        <v>37.5256829162719</v>
+        <v>37.52568291627192</v>
       </c>
       <c r="G28" t="n">
-        <v>53.80038563761974</v>
+        <v>53.80038563761975</v>
       </c>
       <c r="H28" t="n">
-        <v>44.34875326031016</v>
+        <v>44.34875326031018</v>
       </c>
       <c r="I28" t="n">
-        <v>29.33084844513951</v>
+        <v>29.33084844513952</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,10 +2758,10 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>34.59639806355682</v>
+        <v>34.59639806355683</v>
       </c>
       <c r="S28" t="n">
-        <v>98.14249946214056</v>
+        <v>98.14249946214058</v>
       </c>
       <c r="T28" t="n">
         <v>117.4169981442692</v>
@@ -2776,7 +2776,7 @@
         <v>169.8646719595661</v>
       </c>
       <c r="X28" t="n">
-        <v>115.5097739553692</v>
+        <v>115.5097739553693</v>
       </c>
       <c r="Y28" t="n">
         <v>106.3846417114369</v>
@@ -2795,22 +2795,22 @@
         <v>264.6842555723119</v>
       </c>
       <c r="D29" t="n">
-        <v>255.6655596168399</v>
+        <v>0</v>
       </c>
       <c r="E29" t="n">
         <v>277.4076971867455</v>
       </c>
       <c r="F29" t="n">
-        <v>296.5795132747226</v>
+        <v>296.5795132747227</v>
       </c>
       <c r="G29" t="n">
-        <v>111.8391066332798</v>
+        <v>298.5127811721452</v>
       </c>
       <c r="H29" t="n">
         <v>216.0628961504551</v>
       </c>
       <c r="I29" t="n">
-        <v>57.6588612950832</v>
+        <v>57.65886129508323</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2840,25 +2840,25 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>71.92652010774083</v>
+        <v>71.92652010774086</v>
       </c>
       <c r="T29" t="n">
-        <v>108.6851912980902</v>
+        <v>38.77075896112648</v>
       </c>
       <c r="U29" t="n">
-        <v>0</v>
+        <v>138.9063174149372</v>
       </c>
       <c r="V29" t="n">
         <v>220.1793158548093</v>
       </c>
       <c r="W29" t="n">
-        <v>245.4794153327662</v>
+        <v>245.4794153327663</v>
       </c>
       <c r="X29" t="n">
-        <v>264.7796735655128</v>
+        <v>264.7796735655129</v>
       </c>
       <c r="Y29" t="n">
-        <v>276.1762713617116</v>
+        <v>276.1762713617117</v>
       </c>
     </row>
     <row r="30">
@@ -2868,7 +2868,7 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>143.2597570679447</v>
+        <v>157.8252483534483</v>
       </c>
       <c r="C30" t="n">
         <v>160.0866360314548</v>
@@ -2937,7 +2937,7 @@
         <v>195.9378182409833</v>
       </c>
       <c r="Y30" t="n">
-        <v>190.5961130869169</v>
+        <v>176.0306218014133</v>
       </c>
     </row>
     <row r="31">
@@ -2947,28 +2947,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>68.28964948932727</v>
+        <v>68.2896494893273</v>
       </c>
       <c r="C31" t="n">
-        <v>54.48964433472776</v>
+        <v>54.48964433472779</v>
       </c>
       <c r="D31" t="n">
-        <v>38.11100873230615</v>
+        <v>38.11100873230617</v>
       </c>
       <c r="E31" t="n">
-        <v>37.0587585880856</v>
+        <v>37.05875858808562</v>
       </c>
       <c r="F31" t="n">
-        <v>37.5256829162719</v>
+        <v>37.52568291627193</v>
       </c>
       <c r="G31" t="n">
-        <v>53.80038563761974</v>
+        <v>53.80038563761977</v>
       </c>
       <c r="H31" t="n">
-        <v>44.34875326031016</v>
+        <v>44.34875326031019</v>
       </c>
       <c r="I31" t="n">
-        <v>29.33084844513951</v>
+        <v>29.33084844513954</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,10 +2995,10 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>34.59639806355682</v>
+        <v>34.59639806355685</v>
       </c>
       <c r="S31" t="n">
-        <v>98.14249946214056</v>
+        <v>98.14249946214059</v>
       </c>
       <c r="T31" t="n">
         <v>117.4169981442692</v>
@@ -3010,13 +3010,13 @@
         <v>144.6977858889529</v>
       </c>
       <c r="W31" t="n">
-        <v>169.8646719595661</v>
+        <v>169.8646719595662</v>
       </c>
       <c r="X31" t="n">
-        <v>115.5097739553692</v>
+        <v>115.5097739553693</v>
       </c>
       <c r="Y31" t="n">
-        <v>106.3846417114369</v>
+        <v>106.384641711437</v>
       </c>
     </row>
     <row r="32">
@@ -3026,13 +3026,13 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>248.367213975254</v>
+        <v>248.3672139752541</v>
       </c>
       <c r="C32" t="n">
         <v>236.3785309329358</v>
       </c>
       <c r="D32" t="n">
-        <v>227.3598349774637</v>
+        <v>227.3598349774638</v>
       </c>
       <c r="E32" t="n">
         <v>249.1019725473693</v>
@@ -3044,10 +3044,10 @@
         <v>270.207056532769</v>
       </c>
       <c r="H32" t="n">
-        <v>187.7571715110789</v>
+        <v>187.757171511079</v>
       </c>
       <c r="I32" t="n">
-        <v>29.35313665570703</v>
+        <v>29.35313665570709</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3077,10 +3077,10 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>43.62079546836466</v>
+        <v>43.62079546836472</v>
       </c>
       <c r="T32" t="n">
-        <v>80.37946665871402</v>
+        <v>80.37946665871408</v>
       </c>
       <c r="U32" t="n">
         <v>110.600592775561</v>
@@ -3095,7 +3095,7 @@
         <v>236.4739489261367</v>
       </c>
       <c r="Y32" t="n">
-        <v>247.8705467223354</v>
+        <v>247.8705467223355</v>
       </c>
     </row>
     <row r="33">
@@ -3153,7 +3153,7 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>59.18642621600367</v>
+        <v>44.62093493050052</v>
       </c>
       <c r="S33" t="n">
         <v>151.2714921173871</v>
@@ -3168,7 +3168,7 @@
         <v>226.1116663261494</v>
       </c>
       <c r="W33" t="n">
-        <v>224.3372187935196</v>
+        <v>238.9027100790231</v>
       </c>
       <c r="X33" t="n">
         <v>195.9378182409833</v>
@@ -3184,28 +3184,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>39.98392484995111</v>
+        <v>39.98392484995117</v>
       </c>
       <c r="C34" t="n">
-        <v>26.18391969535159</v>
+        <v>26.18391969535165</v>
       </c>
       <c r="D34" t="n">
-        <v>9.80528409292998</v>
+        <v>9.805284092930037</v>
       </c>
       <c r="E34" t="n">
-        <v>8.75303394870943</v>
+        <v>8.753033948709486</v>
       </c>
       <c r="F34" t="n">
-        <v>9.219958276895738</v>
+        <v>9.219958276895795</v>
       </c>
       <c r="G34" t="n">
-        <v>25.49466099824357</v>
+        <v>25.49466099824363</v>
       </c>
       <c r="H34" t="n">
-        <v>16.043028620934</v>
+        <v>16.04302862093405</v>
       </c>
       <c r="I34" t="n">
-        <v>1.025123805763343</v>
+        <v>1.0251238057634</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,28 +3232,28 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>6.290673424180653</v>
+        <v>6.29067342418071</v>
       </c>
       <c r="S34" t="n">
-        <v>69.8367748227644</v>
+        <v>69.83677482276445</v>
       </c>
       <c r="T34" t="n">
-        <v>89.11127350489303</v>
+        <v>89.11127350489309</v>
       </c>
       <c r="U34" t="n">
-        <v>142.5824469682062</v>
+        <v>142.5824469682063</v>
       </c>
       <c r="V34" t="n">
-        <v>116.3920612495767</v>
+        <v>116.3920612495768</v>
       </c>
       <c r="W34" t="n">
         <v>141.55894732019</v>
       </c>
       <c r="X34" t="n">
-        <v>87.20404931599307</v>
+        <v>87.20404931599313</v>
       </c>
       <c r="Y34" t="n">
-        <v>78.07891707206076</v>
+        <v>78.07891707206082</v>
       </c>
     </row>
     <row r="35">
@@ -3390,7 +3390,7 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>59.18642621600367</v>
+        <v>44.62093493050052</v>
       </c>
       <c r="S36" t="n">
         <v>151.2714921173871</v>
@@ -3405,7 +3405,7 @@
         <v>226.1116663261494</v>
       </c>
       <c r="W36" t="n">
-        <v>224.3372187935198</v>
+        <v>238.9027100790231</v>
       </c>
       <c r="X36" t="n">
         <v>195.9378182409833</v>
@@ -3579,7 +3579,7 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>157.8252483534483</v>
+        <v>143.2597570679445</v>
       </c>
       <c r="C39" t="n">
         <v>160.0866360314548</v>
@@ -3642,7 +3642,7 @@
         <v>226.1116663261494</v>
       </c>
       <c r="W39" t="n">
-        <v>224.3372187935193</v>
+        <v>238.9027100790231</v>
       </c>
       <c r="X39" t="n">
         <v>195.9378182409833</v>
@@ -3864,13 +3864,13 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>59.18642621600367</v>
+        <v>44.62093493050052</v>
       </c>
       <c r="S42" t="n">
         <v>151.2714921173871</v>
       </c>
       <c r="T42" t="n">
-        <v>172.2327615101711</v>
+        <v>186.7982527956746</v>
       </c>
       <c r="U42" t="n">
         <v>216.3098444776729</v>
@@ -3983,7 +3983,7 @@
         <v>202.9666599825917</v>
       </c>
       <c r="E44" t="n">
-        <v>224.7087975524973</v>
+        <v>224.7087975524972</v>
       </c>
       <c r="F44" t="n">
         <v>243.8806136404744</v>
@@ -3992,10 +3992,10 @@
         <v>245.8138815378969</v>
       </c>
       <c r="H44" t="n">
-        <v>163.3639965162069</v>
+        <v>163.3639965162068</v>
       </c>
       <c r="I44" t="n">
-        <v>4.959961660835006</v>
+        <v>4.959961660835869</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4025,13 +4025,13 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>19.22762047349264</v>
+        <v>19.22762047349261</v>
       </c>
       <c r="T44" t="n">
-        <v>55.986291663842</v>
+        <v>55.98629166384197</v>
       </c>
       <c r="U44" t="n">
-        <v>86.20741778068896</v>
+        <v>86.20741778068893</v>
       </c>
       <c r="V44" t="n">
         <v>167.4804162205611</v>
@@ -4040,7 +4040,7 @@
         <v>192.780515698518</v>
       </c>
       <c r="X44" t="n">
-        <v>212.080773931265</v>
+        <v>212.0807739312646</v>
       </c>
       <c r="Y44" t="n">
         <v>223.4773717274634</v>
@@ -4101,7 +4101,7 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>59.18642621600367</v>
+        <v>44.62093493050052</v>
       </c>
       <c r="S45" t="n">
         <v>151.2714921173871</v>
@@ -4110,7 +4110,7 @@
         <v>186.7982527956746</v>
       </c>
       <c r="U45" t="n">
-        <v>201.7443531921696</v>
+        <v>216.3098444776729</v>
       </c>
       <c r="V45" t="n">
         <v>226.1116663261494</v>
@@ -4132,10 +4132,10 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>15.59074985507908</v>
+        <v>15.59074985507905</v>
       </c>
       <c r="C46" t="n">
-        <v>1.790744700479564</v>
+        <v>1.790744700479536</v>
       </c>
       <c r="D46" t="n">
         <v>0</v>
@@ -4147,7 +4147,7 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>1.101486003371548</v>
+        <v>1.101486003371519</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -4183,25 +4183,25 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>45.44359982789237</v>
+        <v>45.44359982789234</v>
       </c>
       <c r="T46" t="n">
-        <v>64.71809851002101</v>
+        <v>64.71809851002098</v>
       </c>
       <c r="U46" t="n">
-        <v>118.1892719733342</v>
+        <v>118.1892719733341</v>
       </c>
       <c r="V46" t="n">
-        <v>91.99888625470467</v>
+        <v>91.99888625470464</v>
       </c>
       <c r="W46" t="n">
         <v>117.1657723253179</v>
       </c>
       <c r="X46" t="n">
-        <v>62.81087432112105</v>
+        <v>62.81087432112102</v>
       </c>
       <c r="Y46" t="n">
-        <v>53.68574207718873</v>
+        <v>53.68574207718871</v>
       </c>
     </row>
   </sheetData>
@@ -4304,25 +4304,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>466.1980918064999</v>
+        <v>1344.515639521077</v>
       </c>
       <c r="C2" t="n">
-        <v>466.1980918064999</v>
+        <v>962.5818808538838</v>
       </c>
       <c r="D2" t="n">
-        <v>466.1980918064999</v>
+        <v>962.5818808538838</v>
       </c>
       <c r="E2" t="n">
-        <v>466.1980918064999</v>
+        <v>567.7961609599906</v>
       </c>
       <c r="F2" t="n">
-        <v>456.0873051570743</v>
+        <v>557.6853743105651</v>
       </c>
       <c r="G2" t="n">
-        <v>39.98331861126231</v>
+        <v>545.621791805157</v>
       </c>
       <c r="H2" t="n">
-        <v>39.98331861126231</v>
+        <v>212.8005174024663</v>
       </c>
       <c r="I2" t="n">
         <v>39.98331861126231</v>
@@ -4337,43 +4337,43 @@
         <v>700.0076080137969</v>
       </c>
       <c r="M2" t="n">
-        <v>1093.246774266885</v>
+        <v>1087.673090946513</v>
       </c>
       <c r="N2" t="n">
-        <v>1471.578132954601</v>
+        <v>1466.004449634228</v>
       </c>
       <c r="O2" t="n">
-        <v>1776.582717427435</v>
+        <v>1771.009034107062</v>
       </c>
       <c r="P2" t="n">
-        <v>1904.733676876578</v>
+        <v>1999.165930563115</v>
       </c>
       <c r="Q2" t="n">
         <v>1999.165930563115</v>
       </c>
       <c r="R2" t="n">
-        <v>1908.527644058969</v>
+        <v>1999.165930563115</v>
       </c>
       <c r="S2" t="n">
-        <v>1721.298668689323</v>
+        <v>1811.936955193469</v>
       </c>
       <c r="T2" t="n">
-        <v>1496.939722420334</v>
+        <v>1811.936955193469</v>
       </c>
       <c r="U2" t="n">
-        <v>1242.054386134328</v>
+        <v>1557.051618907463</v>
       </c>
       <c r="V2" t="n">
-        <v>905.0751120302693</v>
+        <v>1557.051618907463</v>
       </c>
       <c r="W2" t="n">
-        <v>860.2416313245191</v>
+        <v>1344.515639521077</v>
       </c>
       <c r="X2" t="n">
-        <v>860.2416313245191</v>
+        <v>1344.515639521077</v>
       </c>
       <c r="Y2" t="n">
-        <v>860.2416313245191</v>
+        <v>1344.515639521077</v>
       </c>
     </row>
     <row r="3">
@@ -4383,22 +4383,22 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>359.833029862853</v>
+        <v>637.5742711200519</v>
       </c>
       <c r="C3" t="n">
-        <v>198.1293571038077</v>
+        <v>475.8705983610066</v>
       </c>
       <c r="D3" t="n">
-        <v>108.3656039212013</v>
+        <v>337.0319613512187</v>
       </c>
       <c r="E3" t="n">
-        <v>108.3656039212013</v>
+        <v>337.0319613512187</v>
       </c>
       <c r="F3" t="n">
-        <v>108.3656039212013</v>
+        <v>337.0319613512187</v>
       </c>
       <c r="G3" t="n">
-        <v>108.3656039212013</v>
+        <v>208.3034613745033</v>
       </c>
       <c r="H3" t="n">
         <v>108.3656039212013</v>
@@ -4407,22 +4407,22 @@
         <v>39.98331861126231</v>
       </c>
       <c r="J3" t="n">
-        <v>100.2374651443685</v>
+        <v>39.98331861126231</v>
       </c>
       <c r="K3" t="n">
-        <v>329.7280177045571</v>
+        <v>39.98331861126231</v>
       </c>
       <c r="L3" t="n">
-        <v>695.5498628746727</v>
+        <v>405.8051637813779</v>
       </c>
       <c r="M3" t="n">
-        <v>1180.583216384899</v>
+        <v>890.8385172916044</v>
       </c>
       <c r="N3" t="n">
-        <v>1675.37678419927</v>
+        <v>1385.632085105975</v>
       </c>
       <c r="O3" t="n">
-        <v>1999.165930563115</v>
+        <v>1697.070011287418</v>
       </c>
       <c r="P3" t="n">
         <v>1999.165930563115</v>
@@ -4431,28 +4431,28 @@
         <v>1999.165930563115</v>
       </c>
       <c r="R3" t="n">
-        <v>1939.381661658061</v>
+        <v>1999.165930563115</v>
       </c>
       <c r="S3" t="n">
-        <v>1786.582174670801</v>
+        <v>1846.366443575856</v>
       </c>
       <c r="T3" t="n">
-        <v>1597.897070836786</v>
+        <v>1657.681339741841</v>
       </c>
       <c r="U3" t="n">
-        <v>1379.402278435097</v>
+        <v>1439.186547340151</v>
       </c>
       <c r="V3" t="n">
-        <v>1151.006655883431</v>
+        <v>1210.790924788485</v>
       </c>
       <c r="W3" t="n">
-        <v>909.6907871167406</v>
+        <v>969.4750560217948</v>
       </c>
       <c r="X3" t="n">
-        <v>711.7737989945351</v>
+        <v>771.5580678995893</v>
       </c>
       <c r="Y3" t="n">
-        <v>519.2524726441139</v>
+        <v>771.5580678995893</v>
       </c>
     </row>
     <row r="4">
@@ -4462,22 +4462,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>209.599288149582</v>
+        <v>572.0425638571948</v>
       </c>
       <c r="C4" t="n">
-        <v>39.98331861126231</v>
+        <v>572.0425638571948</v>
       </c>
       <c r="D4" t="n">
-        <v>39.98331861126231</v>
+        <v>418.9706706849574</v>
       </c>
       <c r="E4" t="n">
-        <v>39.98331861126231</v>
+        <v>266.9616564462763</v>
       </c>
       <c r="F4" t="n">
-        <v>39.98331861126231</v>
+        <v>114.4810014720534</v>
       </c>
       <c r="G4" t="n">
-        <v>39.98331861126231</v>
+        <v>114.4810014720534</v>
       </c>
       <c r="H4" t="n">
         <v>39.98331861126231</v>
@@ -4528,10 +4528,10 @@
         <v>572.0425638571948</v>
       </c>
       <c r="X4" t="n">
-        <v>340.7900997525705</v>
+        <v>572.0425638571948</v>
       </c>
       <c r="Y4" t="n">
-        <v>340.7900997525705</v>
+        <v>572.0425638571948</v>
       </c>
     </row>
     <row r="5">
@@ -4541,16 +4541,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>444.0914464332885</v>
+        <v>1615.741535140362</v>
       </c>
       <c r="C5" t="n">
-        <v>62.15768776609589</v>
+        <v>1233.807776473169</v>
       </c>
       <c r="D5" t="n">
-        <v>62.15768776609589</v>
+        <v>860.9838117003931</v>
       </c>
       <c r="E5" t="n">
-        <v>62.15768776609589</v>
+        <v>466.1980918064999</v>
       </c>
       <c r="F5" t="n">
         <v>52.04690111667027</v>
@@ -4568,13 +4568,13 @@
         <v>111.981862884068</v>
       </c>
       <c r="K5" t="n">
-        <v>352.1222349288507</v>
+        <v>252.1162979219416</v>
       </c>
       <c r="L5" t="n">
-        <v>700.0076080137969</v>
+        <v>600.0016710068878</v>
       </c>
       <c r="M5" t="n">
-        <v>1093.246774266885</v>
+        <v>993.2408372599757</v>
       </c>
       <c r="N5" t="n">
         <v>1371.572195947691</v>
@@ -4589,28 +4589,28 @@
         <v>1999.165930563115</v>
       </c>
       <c r="R5" t="n">
-        <v>1908.527644058969</v>
+        <v>1999.165930563115</v>
       </c>
       <c r="S5" t="n">
-        <v>1721.298668689323</v>
+        <v>1999.165930563115</v>
       </c>
       <c r="T5" t="n">
-        <v>1721.298668689323</v>
+        <v>1999.165930563115</v>
       </c>
       <c r="U5" t="n">
-        <v>1568.656115479529</v>
+        <v>1999.165930563115</v>
       </c>
       <c r="V5" t="n">
-        <v>1231.67684137547</v>
+        <v>1999.165930563115</v>
       </c>
       <c r="W5" t="n">
-        <v>1231.67684137547</v>
+        <v>1999.165930563115</v>
       </c>
       <c r="X5" t="n">
-        <v>1231.67684137547</v>
+        <v>1617.135790084609</v>
       </c>
       <c r="Y5" t="n">
-        <v>838.1349859513077</v>
+        <v>1617.135790084609</v>
       </c>
     </row>
     <row r="6">
@@ -4620,49 +4620,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>784.6022810631807</v>
+        <v>475.2194264302212</v>
       </c>
       <c r="C6" t="n">
-        <v>622.8986083041355</v>
+        <v>313.5157536711759</v>
       </c>
       <c r="D6" t="n">
-        <v>484.0599712943475</v>
+        <v>174.677116661388</v>
       </c>
       <c r="E6" t="n">
-        <v>337.0319613512187</v>
+        <v>174.677116661388</v>
       </c>
       <c r="F6" t="n">
-        <v>337.0319613512187</v>
+        <v>39.98331861126231</v>
       </c>
       <c r="G6" t="n">
-        <v>208.3034613745033</v>
+        <v>39.98331861126231</v>
       </c>
       <c r="H6" t="n">
-        <v>108.3656039212013</v>
+        <v>39.98331861126231</v>
       </c>
       <c r="I6" t="n">
         <v>39.98331861126231</v>
       </c>
       <c r="J6" t="n">
-        <v>100.2374651443685</v>
+        <v>39.98331861126231</v>
       </c>
       <c r="K6" t="n">
-        <v>100.2374651443685</v>
+        <v>269.473871171451</v>
       </c>
       <c r="L6" t="n">
-        <v>167.2715093930755</v>
+        <v>635.2957163415666</v>
       </c>
       <c r="M6" t="n">
-        <v>652.3048629033019</v>
+        <v>1120.329069851793</v>
       </c>
       <c r="N6" t="n">
-        <v>1147.098430717673</v>
+        <v>1615.122637666164</v>
       </c>
       <c r="O6" t="n">
-        <v>1539.298381501824</v>
+        <v>1999.165930563115</v>
       </c>
       <c r="P6" t="n">
-        <v>1841.394300777521</v>
+        <v>1999.165930563115</v>
       </c>
       <c r="Q6" t="n">
         <v>1999.165930563115</v>
@@ -4671,25 +4671,25 @@
         <v>1999.165930563115</v>
       </c>
       <c r="S6" t="n">
-        <v>1999.165930563115</v>
+        <v>1846.366443575856</v>
       </c>
       <c r="T6" t="n">
-        <v>1999.165930563115</v>
+        <v>1713.283467404155</v>
       </c>
       <c r="U6" t="n">
-        <v>1780.671138161425</v>
+        <v>1494.788675002465</v>
       </c>
       <c r="V6" t="n">
-        <v>1552.275515609759</v>
+        <v>1266.393052450799</v>
       </c>
       <c r="W6" t="n">
-        <v>1334.460038317068</v>
+        <v>1025.077183684109</v>
       </c>
       <c r="X6" t="n">
-        <v>1136.543050194863</v>
+        <v>827.1601955619034</v>
       </c>
       <c r="Y6" t="n">
-        <v>944.0217238444416</v>
+        <v>634.6388692114822</v>
       </c>
     </row>
     <row r="7">
@@ -4699,22 +4699,22 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>522.0438265425455</v>
+        <v>193.0552117834996</v>
       </c>
       <c r="C7" t="n">
-        <v>352.4278570042258</v>
+        <v>193.0552117834996</v>
       </c>
       <c r="D7" t="n">
-        <v>199.3559638319885</v>
+        <v>39.98331861126231</v>
       </c>
       <c r="E7" t="n">
-        <v>199.3559638319885</v>
+        <v>39.98331861126231</v>
       </c>
       <c r="F7" t="n">
-        <v>199.3559638319885</v>
+        <v>39.98331861126231</v>
       </c>
       <c r="G7" t="n">
-        <v>199.3559638319885</v>
+        <v>39.98331861126231</v>
       </c>
       <c r="H7" t="n">
         <v>39.98331861126231</v>
@@ -4753,22 +4753,22 @@
         <v>572.0425638571948</v>
       </c>
       <c r="T7" t="n">
-        <v>572.0425638571948</v>
+        <v>338.8636106728736</v>
       </c>
       <c r="U7" t="n">
-        <v>572.0425638571948</v>
+        <v>193.0552117834996</v>
       </c>
       <c r="V7" t="n">
-        <v>572.0425638571948</v>
+        <v>193.0552117834996</v>
       </c>
       <c r="W7" t="n">
-        <v>572.0425638571948</v>
+        <v>193.0552117834996</v>
       </c>
       <c r="X7" t="n">
-        <v>572.0425638571948</v>
+        <v>193.0552117834996</v>
       </c>
       <c r="Y7" t="n">
-        <v>572.0425638571948</v>
+        <v>193.0552117834996</v>
       </c>
     </row>
     <row r="8">
@@ -4778,16 +4778,16 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>872.4675925107471</v>
+        <v>891.4473929767458</v>
       </c>
       <c r="C8" t="n">
-        <v>872.4675925107471</v>
+        <v>509.5136343095532</v>
       </c>
       <c r="D8" t="n">
-        <v>872.4675925107471</v>
+        <v>397.0198996587235</v>
       </c>
       <c r="E8" t="n">
-        <v>801.0603036991276</v>
+        <v>397.0198996587235</v>
       </c>
       <c r="F8" t="n">
         <v>386.9091130092979</v>
@@ -4826,28 +4826,28 @@
         <v>2101.212805059961</v>
       </c>
       <c r="R8" t="n">
-        <v>2010.574518555815</v>
+        <v>2101.212805059961</v>
       </c>
       <c r="S8" t="n">
-        <v>2010.574518555815</v>
+        <v>2101.212805059961</v>
       </c>
       <c r="T8" t="n">
-        <v>2010.574518555815</v>
+        <v>1876.853858790972</v>
       </c>
       <c r="U8" t="n">
-        <v>2010.574518555815</v>
+        <v>1621.968522504967</v>
       </c>
       <c r="V8" t="n">
-        <v>2010.574518555815</v>
+        <v>1284.989248400908</v>
       </c>
       <c r="W8" t="n">
-        <v>1648.039588413416</v>
+        <v>1284.989248400908</v>
       </c>
       <c r="X8" t="n">
-        <v>1266.009447934909</v>
+        <v>1284.989248400908</v>
       </c>
       <c r="Y8" t="n">
-        <v>872.4675925107471</v>
+        <v>891.4473929767458</v>
       </c>
     </row>
     <row r="9">
@@ -4857,13 +4857,13 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>782.4983795934554</v>
+        <v>774.3090066601145</v>
       </c>
       <c r="C9" t="n">
-        <v>620.7947068344101</v>
+        <v>612.6053339010692</v>
       </c>
       <c r="D9" t="n">
-        <v>620.7947068344101</v>
+        <v>473.7666968912813</v>
       </c>
       <c r="E9" t="n">
         <v>473.7666968912813</v>
@@ -4881,52 +4881,52 @@
         <v>42.02425610119923</v>
       </c>
       <c r="J9" t="n">
-        <v>42.02425610119923</v>
+        <v>102.2784026343054</v>
       </c>
       <c r="K9" t="n">
-        <v>42.02425610119923</v>
+        <v>331.768955194494</v>
       </c>
       <c r="L9" t="n">
-        <v>407.8461012713149</v>
+        <v>697.5908003646097</v>
       </c>
       <c r="M9" t="n">
-        <v>892.8794547815413</v>
+        <v>1182.624153874836</v>
       </c>
       <c r="N9" t="n">
-        <v>1249.145305214519</v>
+        <v>1693.889799997958</v>
       </c>
       <c r="O9" t="n">
-        <v>1641.34525599867</v>
+        <v>2086.089750782109</v>
       </c>
       <c r="P9" t="n">
-        <v>1943.441175274367</v>
+        <v>2101.212805059961</v>
       </c>
       <c r="Q9" t="n">
         <v>2101.212805059961</v>
       </c>
       <c r="R9" t="n">
-        <v>2101.212805059961</v>
+        <v>2041.428536154907</v>
       </c>
       <c r="S9" t="n">
-        <v>2101.212805059961</v>
+        <v>1888.629049167647</v>
       </c>
       <c r="T9" t="n">
-        <v>1912.527701225946</v>
+        <v>1699.943945333632</v>
       </c>
       <c r="U9" t="n">
-        <v>1694.032908824257</v>
+        <v>1481.449152931943</v>
       </c>
       <c r="V9" t="n">
-        <v>1465.63728627259</v>
+        <v>1253.053530380276</v>
       </c>
       <c r="W9" t="n">
-        <v>1332.356136847343</v>
+        <v>1011.737661613587</v>
       </c>
       <c r="X9" t="n">
-        <v>1134.439148725137</v>
+        <v>1011.737661613587</v>
       </c>
       <c r="Y9" t="n">
-        <v>941.9178223747163</v>
+        <v>933.7284494413755</v>
       </c>
     </row>
     <row r="10">
@@ -4936,16 +4936,16 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>390.5281326627519</v>
+        <v>363.6492398782001</v>
       </c>
       <c r="C10" t="n">
-        <v>390.5281326627519</v>
+        <v>194.0332703398804</v>
       </c>
       <c r="D10" t="n">
-        <v>346.5139253141033</v>
+        <v>194.0332703398804</v>
       </c>
       <c r="E10" t="n">
-        <v>194.5049110754221</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="F10" t="n">
         <v>42.02425610119923</v>
@@ -5005,7 +5005,7 @@
         <v>574.0835013471317</v>
       </c>
       <c r="Y10" t="n">
-        <v>574.0835013471317</v>
+        <v>363.6492398782001</v>
       </c>
     </row>
     <row r="11">
@@ -5015,76 +5015,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1390.324466250435</v>
+        <v>1265.091741894622</v>
       </c>
       <c r="C11" t="n">
-        <v>1390.324466250435</v>
+        <v>1265.091741894622</v>
       </c>
       <c r="D11" t="n">
-        <v>1128.53196160269</v>
+        <v>1003.299237246878</v>
       </c>
       <c r="E11" t="n">
-        <v>844.7777018338295</v>
+        <v>719.544977478017</v>
       </c>
       <c r="F11" t="n">
-        <v>541.6579712690323</v>
+        <v>416.4252469132195</v>
       </c>
       <c r="G11" t="n">
-        <v>236.5854448482524</v>
+        <v>111.3527204924396</v>
       </c>
       <c r="H11" t="n">
-        <v>49.56698182626786</v>
+        <v>111.3527204924396</v>
       </c>
       <c r="I11" t="n">
         <v>49.56698182626786</v>
       </c>
       <c r="J11" t="n">
-        <v>121.5655260990735</v>
+        <v>144.7059349559743</v>
       </c>
       <c r="K11" t="n">
-        <v>470.5278322124003</v>
+        <v>493.6682410693011</v>
       </c>
       <c r="L11" t="n">
-        <v>818.4132052973466</v>
+        <v>950.3755482227914</v>
       </c>
       <c r="M11" t="n">
-        <v>1211.652371550435</v>
+        <v>1343.614714475879</v>
       </c>
       <c r="N11" t="n">
-        <v>1698.805664306694</v>
+        <v>1830.768007232139</v>
       </c>
       <c r="O11" t="n">
-        <v>2046.938007102259</v>
+        <v>2135.772591704973</v>
       </c>
       <c r="P11" t="n">
-        <v>2383.916837626856</v>
+        <v>2363.929488161026</v>
       </c>
       <c r="Q11" t="n">
-        <v>2478.349091313393</v>
+        <v>2458.361741847563</v>
       </c>
       <c r="R11" t="n">
         <v>2478.349091313393</v>
       </c>
       <c r="S11" t="n">
-        <v>2478.349091313393</v>
+        <v>2402.151576068779</v>
       </c>
       <c r="T11" t="n">
-        <v>2478.349091313393</v>
+        <v>2402.151576068779</v>
       </c>
       <c r="U11" t="n">
-        <v>2478.349091313393</v>
+        <v>2258.297699907806</v>
       </c>
       <c r="V11" t="n">
-        <v>2478.349091313393</v>
+        <v>2032.349885928779</v>
       </c>
       <c r="W11" t="n">
-        <v>2226.845621296026</v>
+        <v>1780.846415911413</v>
       </c>
       <c r="X11" t="n">
-        <v>1955.846940942552</v>
+        <v>1548.103821287609</v>
       </c>
       <c r="Y11" t="n">
-        <v>1673.336545643422</v>
+        <v>1548.103821287609</v>
       </c>
     </row>
     <row r="12">
@@ -5094,46 +5094,46 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>839.0161906131307</v>
+        <v>860.497457018373</v>
       </c>
       <c r="C12" t="n">
-        <v>677.3125178540854</v>
+        <v>698.7937842593277</v>
       </c>
       <c r="D12" t="n">
-        <v>538.4738808442975</v>
+        <v>559.9551472495398</v>
       </c>
       <c r="E12" t="n">
-        <v>391.4458709011687</v>
+        <v>412.9271373064109</v>
       </c>
       <c r="F12" t="n">
-        <v>256.7520728510431</v>
+        <v>278.2333392562853</v>
       </c>
       <c r="G12" t="n">
-        <v>128.0235728743276</v>
+        <v>149.5048392795698</v>
       </c>
       <c r="H12" t="n">
-        <v>117.9492671362069</v>
+        <v>49.56698182626786</v>
       </c>
       <c r="I12" t="n">
         <v>49.56698182626786</v>
       </c>
       <c r="J12" t="n">
-        <v>49.56698182626786</v>
+        <v>109.821128359374</v>
       </c>
       <c r="K12" t="n">
-        <v>264.1607466644866</v>
+        <v>339.3116809195627</v>
       </c>
       <c r="L12" t="n">
-        <v>629.9825918346022</v>
+        <v>705.1335260896783</v>
       </c>
       <c r="M12" t="n">
-        <v>1115.015945344829</v>
+        <v>1190.166879599905</v>
       </c>
       <c r="N12" t="n">
-        <v>1626.281591467951</v>
+        <v>1701.432525723027</v>
       </c>
       <c r="O12" t="n">
-        <v>2018.481542252101</v>
+        <v>2093.632476507178</v>
       </c>
       <c r="P12" t="n">
         <v>2320.577461527799</v>
@@ -5142,28 +5142,28 @@
         <v>2478.349091313393</v>
       </c>
       <c r="R12" t="n">
-        <v>2418.564822408338</v>
+        <v>2418.564822408339</v>
       </c>
       <c r="S12" t="n">
         <v>2265.765335421079</v>
       </c>
       <c r="T12" t="n">
-        <v>2077.080231587064</v>
+        <v>2098.561497992306</v>
       </c>
       <c r="U12" t="n">
-        <v>1858.585439185374</v>
+        <v>1880.066705590616</v>
       </c>
       <c r="V12" t="n">
-        <v>1630.189816633708</v>
+        <v>1651.67108303895</v>
       </c>
       <c r="W12" t="n">
-        <v>1388.873947867018</v>
+        <v>1410.35521427226</v>
       </c>
       <c r="X12" t="n">
-        <v>1190.956959744813</v>
+        <v>1212.438226150055</v>
       </c>
       <c r="Y12" t="n">
-        <v>998.4356333943916</v>
+        <v>1019.916899799634</v>
       </c>
     </row>
     <row r="13">
@@ -5173,13 +5173,13 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>287.5168587562933</v>
+        <v>372.0197311247011</v>
       </c>
       <c r="C13" t="n">
-        <v>287.5168587562933</v>
+        <v>313.4352217114136</v>
       </c>
       <c r="D13" t="n">
-        <v>271.3947886642085</v>
+        <v>271.3947886642086</v>
       </c>
       <c r="E13" t="n">
         <v>230.4172345505596</v>
@@ -5197,52 +5197,52 @@
         <v>49.56698182626786</v>
       </c>
       <c r="J13" t="n">
-        <v>99.52681635684257</v>
+        <v>99.52681635684263</v>
       </c>
       <c r="K13" t="n">
-        <v>241.95293817003</v>
+        <v>241.9529381700301</v>
       </c>
       <c r="L13" t="n">
-        <v>451.3819516388336</v>
+        <v>451.3819516388338</v>
       </c>
       <c r="M13" t="n">
-        <v>678.1973918349794</v>
+        <v>678.1973918349796</v>
       </c>
       <c r="N13" t="n">
-        <v>905.4416676531239</v>
+        <v>905.441667653124</v>
       </c>
       <c r="O13" t="n">
         <v>1112.727248217358</v>
       </c>
       <c r="P13" t="n">
-        <v>1284.517666014039</v>
+        <v>1284.51766601404</v>
       </c>
       <c r="Q13" t="n">
         <v>1355.569151829064</v>
       </c>
       <c r="R13" t="n">
-        <v>1317.078830568474</v>
+        <v>1317.078830568475</v>
       </c>
       <c r="S13" t="n">
-        <v>1214.400528097194</v>
+        <v>1298.903400465602</v>
       </c>
       <c r="T13" t="n">
-        <v>1092.253035037905</v>
+        <v>1176.755907406313</v>
       </c>
       <c r="U13" t="n">
-        <v>916.094255652037</v>
+        <v>1000.597128020445</v>
       </c>
       <c r="V13" t="n">
-        <v>766.390411335492</v>
+        <v>850.8932837039002</v>
       </c>
       <c r="W13" t="n">
-        <v>591.2654699779235</v>
+        <v>675.7683423463316</v>
       </c>
       <c r="X13" t="n">
-        <v>471.0444659983316</v>
+        <v>555.5473383667395</v>
       </c>
       <c r="Y13" t="n">
-        <v>360.040767315641</v>
+        <v>444.5436396840487</v>
       </c>
     </row>
     <row r="14">
@@ -5252,22 +5252,22 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1452.302934879232</v>
+        <v>1020.522776110435</v>
       </c>
       <c r="C14" t="n">
-        <v>1181.400636337071</v>
+        <v>1003.299237246878</v>
       </c>
       <c r="D14" t="n">
-        <v>1181.400636337071</v>
+        <v>1003.299237246878</v>
       </c>
       <c r="E14" t="n">
-        <v>897.6463765682099</v>
+        <v>719.5449774780169</v>
       </c>
       <c r="F14" t="n">
-        <v>594.5266460034125</v>
+        <v>416.4252469132194</v>
       </c>
       <c r="G14" t="n">
-        <v>289.4541195826326</v>
+        <v>111.3527204924396</v>
       </c>
       <c r="H14" t="n">
         <v>111.3527204924396</v>
@@ -5276,25 +5276,25 @@
         <v>49.56698182626786</v>
       </c>
       <c r="J14" t="n">
-        <v>164.6932844218038</v>
+        <v>121.5655260990735</v>
       </c>
       <c r="K14" t="n">
-        <v>513.6555905351306</v>
+        <v>361.7058981438563</v>
       </c>
       <c r="L14" t="n">
-        <v>861.5409636200768</v>
+        <v>709.5912712288025</v>
       </c>
       <c r="M14" t="n">
-        <v>1254.780129873165</v>
+        <v>1145.958195804621</v>
       </c>
       <c r="N14" t="n">
-        <v>1741.933422629425</v>
+        <v>1524.289554492337</v>
       </c>
       <c r="O14" t="n">
-        <v>2046.938007102259</v>
+        <v>1938.116073033715</v>
       </c>
       <c r="P14" t="n">
-        <v>2383.916837626856</v>
+        <v>2275.094903558312</v>
       </c>
       <c r="Q14" t="n">
         <v>2478.349091313393</v>
@@ -5303,25 +5303,25 @@
         <v>2478.349091313393</v>
       </c>
       <c r="S14" t="n">
-        <v>2402.151576068779</v>
+        <v>2478.349091313393</v>
       </c>
       <c r="T14" t="n">
-        <v>2288.824089924823</v>
+        <v>2478.349091313393</v>
       </c>
       <c r="U14" t="n">
-        <v>2288.824089924823</v>
+        <v>2334.495215152419</v>
       </c>
       <c r="V14" t="n">
-        <v>2288.824089924823</v>
+        <v>2108.547401173393</v>
       </c>
       <c r="W14" t="n">
-        <v>2288.824089924823</v>
+        <v>1857.043931156026</v>
       </c>
       <c r="X14" t="n">
-        <v>2017.825409571348</v>
+        <v>1586.045250802552</v>
       </c>
       <c r="Y14" t="n">
-        <v>1735.315014272218</v>
+        <v>1303.534855503422</v>
       </c>
     </row>
     <row r="15">
@@ -5331,25 +5331,25 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>898.8004595181853</v>
+        <v>839.0161906131311</v>
       </c>
       <c r="C15" t="n">
-        <v>737.0967867591401</v>
+        <v>767.1760695692666</v>
       </c>
       <c r="D15" t="n">
-        <v>598.2581497493521</v>
+        <v>628.3374325594787</v>
       </c>
       <c r="E15" t="n">
-        <v>451.2301398062233</v>
+        <v>481.3094226163499</v>
       </c>
       <c r="F15" t="n">
-        <v>316.5363417560977</v>
+        <v>346.6156245662243</v>
       </c>
       <c r="G15" t="n">
-        <v>187.8078417793823</v>
+        <v>217.8871245895088</v>
       </c>
       <c r="H15" t="n">
-        <v>87.86998432608034</v>
+        <v>117.9492671362069</v>
       </c>
       <c r="I15" t="n">
         <v>49.56698182626786</v>
@@ -5358,49 +5358,49 @@
         <v>109.821128359374</v>
       </c>
       <c r="K15" t="n">
-        <v>264.1607466644866</v>
+        <v>339.3116809195627</v>
       </c>
       <c r="L15" t="n">
-        <v>629.9825918346022</v>
+        <v>705.1335260896783</v>
       </c>
       <c r="M15" t="n">
-        <v>1115.015945344829</v>
+        <v>1190.166879599905</v>
       </c>
       <c r="N15" t="n">
-        <v>1626.281591467951</v>
+        <v>1701.432525723027</v>
       </c>
       <c r="O15" t="n">
-        <v>2018.481542252101</v>
+        <v>2093.632476507178</v>
       </c>
       <c r="P15" t="n">
-        <v>2320.577461527799</v>
+        <v>2395.728395782875</v>
       </c>
       <c r="Q15" t="n">
         <v>2478.349091313393</v>
       </c>
       <c r="R15" t="n">
-        <v>2478.349091313393</v>
+        <v>2418.564822408339</v>
       </c>
       <c r="S15" t="n">
-        <v>2325.549604326133</v>
+        <v>2265.765335421079</v>
       </c>
       <c r="T15" t="n">
-        <v>2136.864500492119</v>
+        <v>2077.080231587065</v>
       </c>
       <c r="U15" t="n">
-        <v>1918.369708090429</v>
+        <v>1858.585439185375</v>
       </c>
       <c r="V15" t="n">
-        <v>1689.974085538763</v>
+        <v>1630.189816633709</v>
       </c>
       <c r="W15" t="n">
-        <v>1448.658216772073</v>
+        <v>1388.873947867019</v>
       </c>
       <c r="X15" t="n">
-        <v>1250.741228649867</v>
+        <v>1190.956959744813</v>
       </c>
       <c r="Y15" t="n">
-        <v>1058.219902299446</v>
+        <v>998.4356333943921</v>
       </c>
     </row>
     <row r="16">
@@ -5410,43 +5410,43 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>288.5301032283053</v>
+        <v>287.5168587562935</v>
       </c>
       <c r="C16" t="n">
-        <v>229.9455938150178</v>
+        <v>228.932349343006</v>
       </c>
       <c r="D16" t="n">
-        <v>229.9455938150178</v>
+        <v>186.8919162958011</v>
       </c>
       <c r="E16" t="n">
-        <v>188.9680397013689</v>
+        <v>145.9143621821521</v>
       </c>
       <c r="F16" t="n">
-        <v>188.9680397013689</v>
+        <v>107.4552703333856</v>
       </c>
       <c r="G16" t="n">
-        <v>131.0797511942511</v>
+        <v>49.56698182626786</v>
       </c>
       <c r="H16" t="n">
-        <v>82.73856609855711</v>
+        <v>49.56698182626786</v>
       </c>
       <c r="I16" t="n">
         <v>49.56698182626786</v>
       </c>
       <c r="J16" t="n">
-        <v>99.52681635684262</v>
+        <v>99.5268163568428</v>
       </c>
       <c r="K16" t="n">
-        <v>241.9529381700301</v>
+        <v>241.9529381700304</v>
       </c>
       <c r="L16" t="n">
-        <v>451.3819516388337</v>
+        <v>451.3819516388339</v>
       </c>
       <c r="M16" t="n">
-        <v>678.1973918349795</v>
+        <v>678.1973918349797</v>
       </c>
       <c r="N16" t="n">
-        <v>905.4416676531239</v>
+        <v>905.4416676531241</v>
       </c>
       <c r="O16" t="n">
         <v>1112.727248217358</v>
@@ -5461,25 +5461,25 @@
         <v>1317.078830568475</v>
       </c>
       <c r="S16" t="n">
-        <v>1214.400528097194</v>
+        <v>1214.400528097195</v>
       </c>
       <c r="T16" t="n">
-        <v>1092.253035037905</v>
+        <v>1092.253035037906</v>
       </c>
       <c r="U16" t="n">
-        <v>916.0942556520375</v>
+        <v>916.0942556520376</v>
       </c>
       <c r="V16" t="n">
-        <v>767.4036558075044</v>
+        <v>766.3904113354924</v>
       </c>
       <c r="W16" t="n">
-        <v>592.2787144499358</v>
+        <v>591.2654699779239</v>
       </c>
       <c r="X16" t="n">
-        <v>472.0577104703436</v>
+        <v>471.0444659983318</v>
       </c>
       <c r="Y16" t="n">
-        <v>361.0540117876529</v>
+        <v>360.0407673156411</v>
       </c>
     </row>
     <row r="17">
@@ -5495,28 +5495,28 @@
         <v>1116.16712417525</v>
       </c>
       <c r="D17" t="n">
-        <v>916.1603581936776</v>
+        <v>916.1603581936773</v>
       </c>
       <c r="E17" t="n">
-        <v>694.1918370909884</v>
+        <v>694.1918370909882</v>
       </c>
       <c r="F17" t="n">
-        <v>452.8578451923627</v>
+        <v>452.8578451923625</v>
       </c>
       <c r="G17" t="n">
-        <v>209.5710574377546</v>
+        <v>209.5710574377545</v>
       </c>
       <c r="H17" t="n">
-        <v>49.56698182626786</v>
+        <v>49.56698182626785</v>
       </c>
       <c r="I17" t="n">
-        <v>49.56698182626786</v>
+        <v>49.56698182626785</v>
       </c>
       <c r="J17" t="n">
-        <v>121.5655260990735</v>
+        <v>290.9436626343325</v>
       </c>
       <c r="K17" t="n">
-        <v>531.0840346791153</v>
+        <v>700.4621712143743</v>
       </c>
       <c r="L17" t="n">
         <v>1048.347544299321</v>
@@ -5525,22 +5525,22 @@
         <v>1441.586710552408</v>
       </c>
       <c r="N17" t="n">
-        <v>1819.918069240124</v>
+        <v>1850.755356697968</v>
       </c>
       <c r="O17" t="n">
-        <v>2124.922653712958</v>
+        <v>2155.759941170802</v>
       </c>
       <c r="P17" t="n">
-        <v>2353.079550169011</v>
+        <v>2383.916837626855</v>
       </c>
       <c r="Q17" t="n">
-        <v>2478.349091313393</v>
+        <v>2478.349091313392</v>
       </c>
       <c r="R17" t="n">
-        <v>2478.349091313393</v>
+        <v>2478.349091313392</v>
       </c>
       <c r="S17" t="n">
-        <v>2463.937314734951</v>
+        <v>2463.93731473495</v>
       </c>
       <c r="T17" t="n">
         <v>2412.395567257166</v>
@@ -5558,7 +5558,7 @@
         <v>1767.234681411011</v>
       </c>
       <c r="Y17" t="n">
-        <v>1546.510024778053</v>
+        <v>1546.510024778054</v>
       </c>
     </row>
     <row r="18">
@@ -5568,7 +5568,7 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>928.8797423283119</v>
+        <v>898.8004595181849</v>
       </c>
       <c r="C18" t="n">
         <v>767.1760695692666</v>
@@ -5589,7 +5589,7 @@
         <v>117.9492671362069</v>
       </c>
       <c r="I18" t="n">
-        <v>49.56698182626786</v>
+        <v>49.56698182626785</v>
       </c>
       <c r="J18" t="n">
         <v>109.821128359374</v>
@@ -5610,34 +5610,34 @@
         <v>2093.632476507178</v>
       </c>
       <c r="P18" t="n">
-        <v>2395.728395782875</v>
+        <v>2320.577461527798</v>
       </c>
       <c r="Q18" t="n">
-        <v>2478.349091313393</v>
+        <v>2478.349091313392</v>
       </c>
       <c r="R18" t="n">
-        <v>2418.564822408338</v>
+        <v>2478.349091313392</v>
       </c>
       <c r="S18" t="n">
-        <v>2265.765335421079</v>
+        <v>2325.549604326133</v>
       </c>
       <c r="T18" t="n">
-        <v>2077.080231587064</v>
+        <v>2136.864500492118</v>
       </c>
       <c r="U18" t="n">
-        <v>1858.585439185374</v>
+        <v>1918.369708090428</v>
       </c>
       <c r="V18" t="n">
-        <v>1630.189816633708</v>
+        <v>1689.974085538762</v>
       </c>
       <c r="W18" t="n">
-        <v>1388.873947867018</v>
+        <v>1448.658216772072</v>
       </c>
       <c r="X18" t="n">
-        <v>1190.956959744813</v>
+        <v>1250.741228649867</v>
       </c>
       <c r="Y18" t="n">
-        <v>1088.299185109573</v>
+        <v>1058.219902299446</v>
       </c>
     </row>
     <row r="19">
@@ -5647,70 +5647,70 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>49.56698182626786</v>
+        <v>49.56698182626785</v>
       </c>
       <c r="C19" t="n">
-        <v>49.56698182626786</v>
+        <v>49.56698182626785</v>
       </c>
       <c r="D19" t="n">
-        <v>52.78379906314252</v>
+        <v>49.56698182626785</v>
       </c>
       <c r="E19" t="n">
-        <v>52.78379906314252</v>
+        <v>49.56698182626785</v>
       </c>
       <c r="F19" t="n">
-        <v>52.78379906314252</v>
+        <v>49.56698182626785</v>
       </c>
       <c r="G19" t="n">
-        <v>52.78379906314252</v>
+        <v>49.56698182626785</v>
       </c>
       <c r="H19" t="n">
-        <v>52.78379906314252</v>
+        <v>49.56698182626785</v>
       </c>
       <c r="I19" t="n">
-        <v>52.78379906314252</v>
+        <v>49.56698182626785</v>
       </c>
       <c r="J19" t="n">
-        <v>52.78379906314252</v>
+        <v>49.56698182626785</v>
       </c>
       <c r="K19" t="n">
-        <v>86.38798680778594</v>
+        <v>83.17116957091126</v>
       </c>
       <c r="L19" t="n">
-        <v>186.9950662080454</v>
+        <v>186.9950662080453</v>
       </c>
       <c r="M19" t="n">
-        <v>304.9885723356472</v>
+        <v>304.9885723356471</v>
       </c>
       <c r="N19" t="n">
-        <v>423.4109140852476</v>
+        <v>423.4109140852474</v>
       </c>
       <c r="O19" t="n">
-        <v>521.8745605809372</v>
+        <v>521.8745605809371</v>
       </c>
       <c r="P19" t="n">
-        <v>584.843044309075</v>
+        <v>584.8430443090749</v>
       </c>
       <c r="Q19" t="n">
-        <v>584.843044309075</v>
+        <v>584.8430443090749</v>
       </c>
       <c r="R19" t="n">
-        <v>584.843044309075</v>
+        <v>584.8430443090749</v>
       </c>
       <c r="S19" t="n">
-        <v>543.9504805039666</v>
+        <v>543.9504805039664</v>
       </c>
       <c r="T19" t="n">
-        <v>483.5887261108493</v>
+        <v>483.5887261108492</v>
       </c>
       <c r="U19" t="n">
-        <v>369.2156853911532</v>
+        <v>369.2156853911531</v>
       </c>
       <c r="V19" t="n">
-        <v>281.2975797407798</v>
+        <v>281.2975797407797</v>
       </c>
       <c r="W19" t="n">
-        <v>167.9583770493829</v>
+        <v>167.9583770493828</v>
       </c>
       <c r="X19" t="n">
         <v>109.5231117359626</v>
@@ -5732,19 +5732,19 @@
         <v>1116.16712417525</v>
       </c>
       <c r="D20" t="n">
-        <v>916.1603581936774</v>
+        <v>916.1603581936773</v>
       </c>
       <c r="E20" t="n">
-        <v>694.191837090988</v>
+        <v>694.1918370909882</v>
       </c>
       <c r="F20" t="n">
-        <v>452.8578451923624</v>
+        <v>452.8578451923626</v>
       </c>
       <c r="G20" t="n">
-        <v>209.5710574377545</v>
+        <v>209.5710574377546</v>
       </c>
       <c r="H20" t="n">
-        <v>49.56698182626769</v>
+        <v>49.56698182626786</v>
       </c>
       <c r="I20" t="n">
         <v>49.56698182626786</v>
@@ -5759,25 +5759,25 @@
         <v>709.5912712288025</v>
       </c>
       <c r="M20" t="n">
-        <v>1102.83043748189</v>
+        <v>1272.20857401715</v>
       </c>
       <c r="N20" t="n">
-        <v>1481.161796169606</v>
+        <v>1650.539932704865</v>
       </c>
       <c r="O20" t="n">
         <v>1955.544517177699</v>
       </c>
       <c r="P20" t="n">
-        <v>2353.079550169011</v>
+        <v>2303.373285694312</v>
       </c>
       <c r="Q20" t="n">
-        <v>2478.349091313393</v>
+        <v>2397.805539380849</v>
       </c>
       <c r="R20" t="n">
         <v>2478.349091313393</v>
       </c>
       <c r="S20" t="n">
-        <v>2463.937314734951</v>
+        <v>2463.937314734952</v>
       </c>
       <c r="T20" t="n">
         <v>2412.395567257166</v>
@@ -5786,10 +5786,10 @@
         <v>2330.327429762364</v>
       </c>
       <c r="V20" t="n">
-        <v>2166.165354449509</v>
+        <v>2166.16535444951</v>
       </c>
       <c r="W20" t="n">
-        <v>1976.447623098314</v>
+        <v>1976.447623098315</v>
       </c>
       <c r="X20" t="n">
         <v>1767.234681411012</v>
@@ -5805,46 +5805,46 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>860.497457018373</v>
+        <v>928.8797423283119</v>
       </c>
       <c r="C21" t="n">
-        <v>698.7937842593277</v>
+        <v>767.1760695692666</v>
       </c>
       <c r="D21" t="n">
-        <v>559.9551472495398</v>
+        <v>628.3374325594787</v>
       </c>
       <c r="E21" t="n">
-        <v>412.9271373064109</v>
+        <v>481.3094226163499</v>
       </c>
       <c r="F21" t="n">
-        <v>278.2333392562853</v>
+        <v>346.6156245662243</v>
       </c>
       <c r="G21" t="n">
-        <v>149.5048392795698</v>
+        <v>217.8871245895088</v>
       </c>
       <c r="H21" t="n">
-        <v>49.56698182626786</v>
+        <v>117.9492671362069</v>
       </c>
       <c r="I21" t="n">
         <v>49.56698182626786</v>
       </c>
       <c r="J21" t="n">
-        <v>49.56698182626786</v>
+        <v>109.821128359374</v>
       </c>
       <c r="K21" t="n">
-        <v>264.1607466644866</v>
+        <v>339.3116809195627</v>
       </c>
       <c r="L21" t="n">
-        <v>629.9825918346022</v>
+        <v>705.1335260896783</v>
       </c>
       <c r="M21" t="n">
-        <v>1115.015945344829</v>
+        <v>1190.166879599905</v>
       </c>
       <c r="N21" t="n">
-        <v>1626.281591467951</v>
+        <v>1701.432525723027</v>
       </c>
       <c r="O21" t="n">
-        <v>2018.481542252101</v>
+        <v>2018.481542252102</v>
       </c>
       <c r="P21" t="n">
         <v>2320.577461527799</v>
@@ -5853,28 +5853,28 @@
         <v>2478.349091313393</v>
       </c>
       <c r="R21" t="n">
-        <v>2440.04608881358</v>
+        <v>2478.349091313393</v>
       </c>
       <c r="S21" t="n">
-        <v>2287.246601826321</v>
+        <v>2355.62888713626</v>
       </c>
       <c r="T21" t="n">
-        <v>2098.561497992306</v>
+        <v>2166.943783302245</v>
       </c>
       <c r="U21" t="n">
-        <v>1880.066705590616</v>
+        <v>1948.448990900555</v>
       </c>
       <c r="V21" t="n">
-        <v>1651.67108303895</v>
+        <v>1720.053368348889</v>
       </c>
       <c r="W21" t="n">
-        <v>1410.35521427226</v>
+        <v>1478.737499582199</v>
       </c>
       <c r="X21" t="n">
-        <v>1212.438226150055</v>
+        <v>1280.820511459994</v>
       </c>
       <c r="Y21" t="n">
-        <v>1019.916899799634</v>
+        <v>1088.299185109573</v>
       </c>
     </row>
     <row r="22">
@@ -5953,7 +5953,7 @@
         <v>109.5231117359626</v>
       </c>
       <c r="Y22" t="n">
-        <v>60.30515171944369</v>
+        <v>60.3051517194437</v>
       </c>
     </row>
     <row r="23">
@@ -5969,34 +5969,34 @@
         <v>1116.16712417525</v>
       </c>
       <c r="D23" t="n">
-        <v>916.1603581936774</v>
+        <v>916.1603581936773</v>
       </c>
       <c r="E23" t="n">
-        <v>694.191837090988</v>
+        <v>694.1918370909882</v>
       </c>
       <c r="F23" t="n">
-        <v>452.8578451923624</v>
+        <v>452.8578451923627</v>
       </c>
       <c r="G23" t="n">
-        <v>209.5710574377545</v>
+        <v>209.5710574377546</v>
       </c>
       <c r="H23" t="n">
-        <v>49.56698182626769</v>
+        <v>49.56698182626786</v>
       </c>
       <c r="I23" t="n">
-        <v>49.56698182626769</v>
+        <v>49.56698182626786</v>
       </c>
       <c r="J23" t="n">
-        <v>121.5655260990734</v>
+        <v>290.9436626343325</v>
       </c>
       <c r="K23" t="n">
-        <v>361.7058981438561</v>
+        <v>531.0840346791152</v>
       </c>
       <c r="L23" t="n">
-        <v>878.9694077640613</v>
+        <v>878.9694077640615</v>
       </c>
       <c r="M23" t="n">
-        <v>1441.586710552408</v>
+        <v>1272.208574017149</v>
       </c>
       <c r="N23" t="n">
         <v>1819.918069240124</v>
@@ -6026,7 +6026,7 @@
         <v>2166.165354449509</v>
       </c>
       <c r="W23" t="n">
-        <v>1976.447623098314</v>
+        <v>1976.447623098315</v>
       </c>
       <c r="X23" t="n">
         <v>1767.234681411012</v>
@@ -6045,19 +6045,19 @@
         <v>839.0161906131307</v>
       </c>
       <c r="C24" t="n">
-        <v>767.1760695692666</v>
+        <v>677.3125178540854</v>
       </c>
       <c r="D24" t="n">
-        <v>628.3374325594787</v>
+        <v>538.4738808442975</v>
       </c>
       <c r="E24" t="n">
-        <v>481.3094226163499</v>
+        <v>391.4458709011687</v>
       </c>
       <c r="F24" t="n">
-        <v>346.6156245662243</v>
+        <v>256.7520728510431</v>
       </c>
       <c r="G24" t="n">
-        <v>217.8871245895088</v>
+        <v>128.0235728743276</v>
       </c>
       <c r="H24" t="n">
         <v>117.9492671362069</v>
@@ -6069,22 +6069,22 @@
         <v>109.821128359374</v>
       </c>
       <c r="K24" t="n">
-        <v>264.1607466644866</v>
+        <v>339.3116809195627</v>
       </c>
       <c r="L24" t="n">
-        <v>629.9825918346022</v>
+        <v>705.1335260896783</v>
       </c>
       <c r="M24" t="n">
-        <v>1115.015945344829</v>
+        <v>1190.166879599905</v>
       </c>
       <c r="N24" t="n">
-        <v>1626.281591467951</v>
+        <v>1701.432525723027</v>
       </c>
       <c r="O24" t="n">
-        <v>2018.481542252101</v>
+        <v>2093.632476507178</v>
       </c>
       <c r="P24" t="n">
-        <v>2320.577461527799</v>
+        <v>2395.728395782875</v>
       </c>
       <c r="Q24" t="n">
         <v>2478.349091313393</v>
@@ -6154,16 +6154,16 @@
         <v>183.7782489711708</v>
       </c>
       <c r="M25" t="n">
-        <v>301.7717550987725</v>
+        <v>304.9885723356472</v>
       </c>
       <c r="N25" t="n">
-        <v>420.1940968483729</v>
+        <v>423.4109140852476</v>
       </c>
       <c r="O25" t="n">
-        <v>518.6577433440626</v>
+        <v>521.8745605809372</v>
       </c>
       <c r="P25" t="n">
-        <v>581.6262270722004</v>
+        <v>584.843044309075</v>
       </c>
       <c r="Q25" t="n">
         <v>584.843044309075</v>
@@ -6200,22 +6200,22 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1476.732124138699</v>
+        <v>1525.844608403201</v>
       </c>
       <c r="C26" t="n">
-        <v>1476.732124138699</v>
+        <v>1258.486774491774</v>
       </c>
       <c r="D26" t="n">
-        <v>1218.484084121689</v>
+        <v>1000.238734474764</v>
       </c>
       <c r="E26" t="n">
-        <v>938.2742889835622</v>
+        <v>720.0289393366377</v>
       </c>
       <c r="F26" t="n">
-        <v>638.699023049499</v>
+        <v>420.4536734025745</v>
       </c>
       <c r="G26" t="n">
-        <v>337.1709612594532</v>
+        <v>118.9256116125289</v>
       </c>
       <c r="H26" t="n">
         <v>118.9256116125289</v>
@@ -6227,16 +6227,16 @@
         <v>244.9787457030236</v>
       </c>
       <c r="K26" t="n">
-        <v>589.9307838442184</v>
+        <v>597.4149816009331</v>
       </c>
       <c r="L26" t="n">
-        <v>1050.112020782291</v>
+        <v>1057.596218539006</v>
       </c>
       <c r="M26" t="n">
-        <v>1555.647050888506</v>
+        <v>1563.13124864522</v>
       </c>
       <c r="N26" t="n">
-        <v>2046.274273429348</v>
+        <v>2053.758471186063</v>
       </c>
       <c r="O26" t="n">
         <v>2463.574721755309</v>
@@ -6251,25 +6251,25 @@
         <v>3034.216878854565</v>
       </c>
       <c r="S26" t="n">
-        <v>2961.563828240686</v>
+        <v>3034.216878854565</v>
       </c>
       <c r="T26" t="n">
-        <v>2851.780806727463</v>
+        <v>2924.433857341342</v>
       </c>
       <c r="U26" t="n">
-        <v>2711.471395197223</v>
+        <v>2784.124445811103</v>
       </c>
       <c r="V26" t="n">
-        <v>2489.068045848931</v>
+        <v>2599.691374943222</v>
       </c>
       <c r="W26" t="n">
-        <v>2302.619885292088</v>
+        <v>2351.73236955659</v>
       </c>
       <c r="X26" t="n">
-        <v>2035.165669569347</v>
+        <v>2084.27815383385</v>
       </c>
       <c r="Y26" t="n">
-        <v>1756.199738900952</v>
+        <v>1805.312223165454</v>
       </c>
     </row>
     <row r="27">
@@ -6279,13 +6279,13 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>925.2844806190308</v>
+        <v>939.9970980791353</v>
       </c>
       <c r="C27" t="n">
-        <v>763.5808078599855</v>
+        <v>778.29342532009</v>
       </c>
       <c r="D27" t="n">
-        <v>624.7421708501976</v>
+        <v>639.4547883103021</v>
       </c>
       <c r="E27" t="n">
         <v>492.4267783671734</v>
@@ -6327,28 +6327,28 @@
         <v>2564.617381319293</v>
       </c>
       <c r="R27" t="n">
-        <v>2504.833112414238</v>
+        <v>2519.545729874343</v>
       </c>
       <c r="S27" t="n">
-        <v>2352.033625426979</v>
+        <v>2366.746242887083</v>
       </c>
       <c r="T27" t="n">
-        <v>2163.348521592964</v>
+        <v>2178.061139053068</v>
       </c>
       <c r="U27" t="n">
-        <v>1944.853729191274</v>
+        <v>1959.566346651379</v>
       </c>
       <c r="V27" t="n">
-        <v>1716.458106639608</v>
+        <v>1731.170724099713</v>
       </c>
       <c r="W27" t="n">
-        <v>1475.142237872918</v>
+        <v>1489.854855333023</v>
       </c>
       <c r="X27" t="n">
-        <v>1277.225249750713</v>
+        <v>1291.937867210817</v>
       </c>
       <c r="Y27" t="n">
-        <v>1084.703923400292</v>
+        <v>1099.416540860396</v>
       </c>
     </row>
     <row r="28">
@@ -6358,40 +6358,40 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>358.3258344603851</v>
+        <v>358.3258344603853</v>
       </c>
       <c r="C28" t="n">
-        <v>303.2857896778319</v>
+        <v>303.285789677832</v>
       </c>
       <c r="D28" t="n">
-        <v>264.7898212613612</v>
+        <v>264.7898212613611</v>
       </c>
       <c r="E28" t="n">
         <v>227.3567317784464</v>
       </c>
       <c r="F28" t="n">
-        <v>189.45200155999</v>
+        <v>189.4520015599899</v>
       </c>
       <c r="G28" t="n">
         <v>135.1081776836063</v>
       </c>
       <c r="H28" t="n">
-        <v>90.31145721864637</v>
+        <v>90.31145721864635</v>
       </c>
       <c r="I28" t="n">
         <v>60.6843375770913</v>
       </c>
       <c r="J28" t="n">
-        <v>114.1181018922487</v>
+        <v>114.1181018922486</v>
       </c>
       <c r="K28" t="n">
-        <v>260.0181534900189</v>
+        <v>260.0181534900187</v>
       </c>
       <c r="L28" t="n">
-        <v>472.921096743405</v>
+        <v>472.9210967434046</v>
       </c>
       <c r="M28" t="n">
-        <v>703.2104667241334</v>
+        <v>703.2104667241333</v>
       </c>
       <c r="N28" t="n">
         <v>933.9286723268604</v>
@@ -6403,7 +6403,7 @@
         <v>1319.952530256941</v>
       </c>
       <c r="Q28" t="n">
-        <v>1394.477945856548</v>
+        <v>1394.477945856549</v>
       </c>
       <c r="R28" t="n">
         <v>1359.532089226693</v>
@@ -6415,19 +6415,19 @@
         <v>1141.795222957592</v>
       </c>
       <c r="U28" t="n">
-        <v>969.1809082024585</v>
+        <v>969.1809082024587</v>
       </c>
       <c r="V28" t="n">
-        <v>823.0215285166474</v>
+        <v>823.0215285166477</v>
       </c>
       <c r="W28" t="n">
-        <v>651.4410517898129</v>
+        <v>651.4410517898132</v>
       </c>
       <c r="X28" t="n">
-        <v>534.7645124409551</v>
+        <v>534.7645124409553</v>
       </c>
       <c r="Y28" t="n">
-        <v>427.3052783889985</v>
+        <v>427.3052783889987</v>
       </c>
     </row>
     <row r="29">
@@ -6437,22 +6437,22 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1555.53069083915</v>
+        <v>1485.841918033115</v>
       </c>
       <c r="C29" t="n">
-        <v>1288.172856927723</v>
+        <v>1218.484084121689</v>
       </c>
       <c r="D29" t="n">
-        <v>1029.924816910714</v>
+        <v>1218.484084121689</v>
       </c>
       <c r="E29" t="n">
-        <v>749.715021772587</v>
+        <v>938.2742889835622</v>
       </c>
       <c r="F29" t="n">
-        <v>450.1397558385237</v>
+        <v>638.6990230494989</v>
       </c>
       <c r="G29" t="n">
-        <v>337.1709612594532</v>
+        <v>337.1709612594533</v>
       </c>
       <c r="H29" t="n">
         <v>118.9256116125289</v>
@@ -6464,7 +6464,7 @@
         <v>244.9787457030236</v>
       </c>
       <c r="K29" t="n">
-        <v>597.4149816009331</v>
+        <v>597.4149816009329</v>
       </c>
       <c r="L29" t="n">
         <v>1057.596218539006</v>
@@ -6476,37 +6476,37 @@
         <v>2053.758471186063</v>
       </c>
       <c r="O29" t="n">
-        <v>2471.058919512023</v>
+        <v>2463.574721755309</v>
       </c>
       <c r="P29" t="n">
-        <v>2811.511679821203</v>
+        <v>2804.027482064489</v>
       </c>
       <c r="Q29" t="n">
-        <v>3018.239797360867</v>
+        <v>3010.755599604152</v>
       </c>
       <c r="R29" t="n">
         <v>3034.216878854565</v>
       </c>
       <c r="S29" t="n">
-        <v>2961.563828240686</v>
+        <v>2961.563828240685</v>
       </c>
       <c r="T29" t="n">
-        <v>2851.780806727463</v>
+        <v>2922.401445451668</v>
       </c>
       <c r="U29" t="n">
-        <v>2851.780806727463</v>
+        <v>2782.092033921429</v>
       </c>
       <c r="V29" t="n">
-        <v>2629.377457379171</v>
+        <v>2559.688684573136</v>
       </c>
       <c r="W29" t="n">
-        <v>2381.418451992538</v>
+        <v>2311.729679186504</v>
       </c>
       <c r="X29" t="n">
-        <v>2113.964236269798</v>
+        <v>2044.275463463764</v>
       </c>
       <c r="Y29" t="n">
-        <v>1834.998305601403</v>
+        <v>1765.309532795368</v>
       </c>
     </row>
     <row r="30">
@@ -6585,7 +6585,7 @@
         <v>1277.225249750713</v>
       </c>
       <c r="Y30" t="n">
-        <v>1084.703923400292</v>
+        <v>1099.416540860396</v>
       </c>
     </row>
     <row r="31">
@@ -6595,76 +6595,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>358.3258344603844</v>
+        <v>358.3258344603848</v>
       </c>
       <c r="C31" t="n">
-        <v>303.285789677831</v>
+        <v>303.2857896778316</v>
       </c>
       <c r="D31" t="n">
-        <v>264.7898212613602</v>
+        <v>264.7898212613608</v>
       </c>
       <c r="E31" t="n">
-        <v>227.3567317784455</v>
+        <v>227.3567317784463</v>
       </c>
       <c r="F31" t="n">
-        <v>189.452001559989</v>
+        <v>189.4520015599899</v>
       </c>
       <c r="G31" t="n">
-        <v>135.1081776836054</v>
+        <v>135.1081776836062</v>
       </c>
       <c r="H31" t="n">
-        <v>90.3114572186459</v>
+        <v>90.3114572186464</v>
       </c>
       <c r="I31" t="n">
         <v>60.6843375770913</v>
       </c>
       <c r="J31" t="n">
-        <v>114.1181018922484</v>
+        <v>114.1181018922488</v>
       </c>
       <c r="K31" t="n">
-        <v>260.0181534900184</v>
+        <v>260.0181534900188</v>
       </c>
       <c r="L31" t="n">
-        <v>472.9210967434041</v>
+        <v>472.921096743405</v>
       </c>
       <c r="M31" t="n">
-        <v>703.2104667241324</v>
+        <v>703.2104667241333</v>
       </c>
       <c r="N31" t="n">
-        <v>933.9286723268592</v>
+        <v>933.9286723268604</v>
       </c>
       <c r="O31" t="n">
-        <v>1144.688182675676</v>
+        <v>1144.688182675677</v>
       </c>
       <c r="P31" t="n">
-        <v>1319.95253025694</v>
+        <v>1319.952530256941</v>
       </c>
       <c r="Q31" t="n">
-        <v>1394.477945856547</v>
+        <v>1394.477945856548</v>
       </c>
       <c r="R31" t="n">
-        <v>1359.532089226692</v>
+        <v>1359.532089226693</v>
       </c>
       <c r="S31" t="n">
-        <v>1260.398251386146</v>
+        <v>1260.398251386147</v>
       </c>
       <c r="T31" t="n">
-        <v>1141.795222957591</v>
+        <v>1141.795222957592</v>
       </c>
       <c r="U31" t="n">
-        <v>969.1809082024575</v>
+        <v>969.1809082024583</v>
       </c>
       <c r="V31" t="n">
-        <v>823.0215285166465</v>
+        <v>823.0215285166473</v>
       </c>
       <c r="W31" t="n">
-        <v>651.441051789812</v>
+        <v>651.4410517898128</v>
       </c>
       <c r="X31" t="n">
-        <v>534.7645124409543</v>
+        <v>534.7645124409549</v>
       </c>
       <c r="Y31" t="n">
-        <v>427.3052783889978</v>
+        <v>427.3052783889984</v>
       </c>
     </row>
     <row r="32">
@@ -6680,67 +6680,67 @@
         <v>1303.141340349513</v>
       </c>
       <c r="D32" t="n">
-        <v>1073.484941382378</v>
+        <v>1073.484941382377</v>
       </c>
       <c r="E32" t="n">
-        <v>821.8667872941257</v>
+        <v>821.8667872941255</v>
       </c>
       <c r="F32" t="n">
-        <v>550.8831624099373</v>
+        <v>550.8831624099371</v>
       </c>
       <c r="G32" t="n">
-        <v>277.9467416697667</v>
+        <v>277.9467416697664</v>
       </c>
       <c r="H32" t="n">
-        <v>88.29303307271704</v>
+        <v>88.29303307271712</v>
       </c>
       <c r="I32" t="n">
-        <v>58.64340008715438</v>
+        <v>58.6434000871544</v>
       </c>
       <c r="J32" t="n">
-        <v>130.64194435996</v>
+        <v>270.9604756060691</v>
       </c>
       <c r="K32" t="n">
-        <v>370.7823164047428</v>
+        <v>651.4193788969608</v>
       </c>
       <c r="L32" t="n">
-        <v>858.986220735798</v>
+        <v>1060.56620441977</v>
       </c>
       <c r="M32" t="n">
-        <v>1392.543918234995</v>
+        <v>1453.805370672858</v>
       </c>
       <c r="N32" t="n">
-        <v>1911.19380816882</v>
+        <v>1832.136729360574</v>
       </c>
       <c r="O32" t="n">
-        <v>2356.516923887763</v>
+        <v>2277.459845079517</v>
       </c>
       <c r="P32" t="n">
-        <v>2645.935272781678</v>
+        <v>2645.935272781679</v>
       </c>
       <c r="Q32" t="n">
-        <v>2880.686057714324</v>
+        <v>2880.686057714325</v>
       </c>
       <c r="R32" t="n">
-        <v>2932.170004357719</v>
+        <v>2932.17000435772</v>
       </c>
       <c r="S32" t="n">
-        <v>2888.108594793714</v>
+        <v>2888.108594793715</v>
       </c>
       <c r="T32" t="n">
-        <v>2806.917214330367</v>
+        <v>2806.917214330368</v>
       </c>
       <c r="U32" t="n">
-        <v>2695.199443850001</v>
+        <v>2695.199443850002</v>
       </c>
       <c r="V32" t="n">
-        <v>2501.387735551585</v>
+        <v>2501.387735551586</v>
       </c>
       <c r="W32" t="n">
         <v>2282.020371214828</v>
       </c>
       <c r="X32" t="n">
-        <v>2043.157796541962</v>
+        <v>2043.157796541963</v>
       </c>
       <c r="Y32" t="n">
         <v>1792.783506923442</v>
@@ -6774,7 +6774,7 @@
         <v>127.0256853970934</v>
       </c>
       <c r="I33" t="n">
-        <v>58.64340008715438</v>
+        <v>58.6434000871544</v>
       </c>
       <c r="J33" t="n">
         <v>118.8975466202605</v>
@@ -6801,19 +6801,19 @@
         <v>2562.576443829356</v>
       </c>
       <c r="R33" t="n">
-        <v>2502.792174924301</v>
+        <v>2517.504792384406</v>
       </c>
       <c r="S33" t="n">
-        <v>2349.992687937042</v>
+        <v>2364.705305397146</v>
       </c>
       <c r="T33" t="n">
-        <v>2161.307584103027</v>
+        <v>2176.020201563132</v>
       </c>
       <c r="U33" t="n">
-        <v>1942.812791701337</v>
+        <v>1957.525409161442</v>
       </c>
       <c r="V33" t="n">
-        <v>1714.417169149671</v>
+        <v>1729.129786609776</v>
       </c>
       <c r="W33" t="n">
         <v>1487.813917843086</v>
@@ -6832,76 +6832,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>156.1434096213237</v>
+        <v>156.1434096213241</v>
       </c>
       <c r="C34" t="n">
-        <v>129.6950058886454</v>
+        <v>129.6950058886457</v>
       </c>
       <c r="D34" t="n">
-        <v>119.7906785220494</v>
+        <v>119.7906785220497</v>
       </c>
       <c r="E34" t="n">
-        <v>110.9492300890096</v>
+        <v>110.9492300890098</v>
       </c>
       <c r="F34" t="n">
-        <v>101.636140920428</v>
+        <v>101.6361409204282</v>
       </c>
       <c r="G34" t="n">
-        <v>75.88395809391938</v>
+        <v>75.8839580939195</v>
       </c>
       <c r="H34" t="n">
-        <v>59.67887867883452</v>
+        <v>59.6788786788346</v>
       </c>
       <c r="I34" t="n">
-        <v>58.64340008715438</v>
+        <v>58.6434000871544</v>
       </c>
       <c r="J34" t="n">
-        <v>58.64340008715438</v>
+        <v>58.6434000871544</v>
       </c>
       <c r="K34" t="n">
-        <v>92.24758783179779</v>
+        <v>155.8786315751063</v>
       </c>
       <c r="L34" t="n">
-        <v>333.1731984781663</v>
+        <v>256.4857109753658</v>
       </c>
       <c r="M34" t="n">
-        <v>451.1667046057681</v>
+        <v>374.4792171029675</v>
       </c>
       <c r="N34" t="n">
-        <v>569.5890463553684</v>
+        <v>633.2200900986769</v>
       </c>
       <c r="O34" t="n">
-        <v>808.3712240971671</v>
+        <v>731.6837365943666</v>
       </c>
       <c r="P34" t="n">
-        <v>871.3397078253049</v>
+        <v>934.9707515686134</v>
       </c>
       <c r="Q34" t="n">
-        <v>934.9707515686125</v>
+        <v>934.9707515686134</v>
       </c>
       <c r="R34" t="n">
-        <v>928.6165359886321</v>
+        <v>928.6165359886329</v>
       </c>
       <c r="S34" t="n">
-        <v>858.074339197961</v>
+        <v>858.0743391979618</v>
       </c>
       <c r="T34" t="n">
-        <v>768.0629518192811</v>
+        <v>768.0629518192819</v>
       </c>
       <c r="U34" t="n">
-        <v>624.0402781140223</v>
+        <v>624.0402781140231</v>
       </c>
       <c r="V34" t="n">
-        <v>506.4725394780862</v>
+        <v>506.4725394780869</v>
       </c>
       <c r="W34" t="n">
-        <v>363.4837038011267</v>
+        <v>363.4837038011273</v>
       </c>
       <c r="X34" t="n">
-        <v>275.3988055021438</v>
+        <v>275.3988055021443</v>
       </c>
       <c r="Y34" t="n">
-        <v>196.5312125000622</v>
+        <v>196.5312125000627</v>
       </c>
     </row>
     <row r="35">
@@ -6938,19 +6938,19 @@
         <v>123.0992186348914</v>
       </c>
       <c r="K35" t="n">
-        <v>363.2395906796742</v>
+        <v>527.7073651707066</v>
       </c>
       <c r="L35" t="n">
-        <v>711.1249637646204</v>
+        <v>991.4016840570273</v>
       </c>
       <c r="M35" t="n">
-        <v>1268.831904508741</v>
+        <v>1384.640850310115</v>
       </c>
       <c r="N35" t="n">
         <v>1762.972208997831</v>
       </c>
       <c r="O35" t="n">
-        <v>2232.444567961697</v>
+        <v>2067.976793470665</v>
       </c>
       <c r="P35" t="n">
         <v>2460.60146441775</v>
@@ -7038,19 +7038,19 @@
         <v>2555.033718104287</v>
       </c>
       <c r="R36" t="n">
-        <v>2495.249449199233</v>
+        <v>2509.962066659337</v>
       </c>
       <c r="S36" t="n">
-        <v>2342.449962211973</v>
+        <v>2357.162579672078</v>
       </c>
       <c r="T36" t="n">
-        <v>2153.764858377959</v>
+        <v>2168.477475838063</v>
       </c>
       <c r="U36" t="n">
-        <v>1935.270065976269</v>
+        <v>1949.982683436373</v>
       </c>
       <c r="V36" t="n">
-        <v>1706.874443424603</v>
+        <v>1721.587060884707</v>
       </c>
       <c r="W36" t="n">
         <v>1480.271192118017</v>
@@ -7105,16 +7105,16 @@
         <v>303.3054476345904</v>
       </c>
       <c r="N37" t="n">
-        <v>450.0250734908598</v>
+        <v>421.7277893841908</v>
       </c>
       <c r="O37" t="n">
-        <v>548.4887199865494</v>
+        <v>520.1914358798805</v>
       </c>
       <c r="P37" t="n">
-        <v>611.4572037146872</v>
+        <v>583.1599196080183</v>
       </c>
       <c r="Q37" t="n">
-        <v>611.4572037146872</v>
+        <v>629.3786802696717</v>
       </c>
       <c r="R37" t="n">
         <v>629.3786802696717</v>
@@ -7172,28 +7172,28 @@
         <v>51.10067436208574</v>
       </c>
       <c r="J38" t="n">
-        <v>123.0992186348914</v>
+        <v>287.5669931259238</v>
       </c>
       <c r="K38" t="n">
-        <v>527.7073651707066</v>
+        <v>692.175139661739</v>
       </c>
       <c r="L38" t="n">
-        <v>875.5927382556529</v>
+        <v>1040.060512746685</v>
       </c>
       <c r="M38" t="n">
-        <v>1268.831904508741</v>
+        <v>1433.299678999773</v>
       </c>
       <c r="N38" t="n">
-        <v>1687.339019109512</v>
+        <v>1811.631037687489</v>
       </c>
       <c r="O38" t="n">
-        <v>2156.811378073378</v>
+        <v>2116.635622160323</v>
       </c>
       <c r="P38" t="n">
-        <v>2384.968274529432</v>
+        <v>2344.792518616376</v>
       </c>
       <c r="Q38" t="n">
-        <v>2479.400528215969</v>
+        <v>2555.033718104287</v>
       </c>
       <c r="R38" t="n">
         <v>2555.033718104287</v>
@@ -7290,13 +7290,13 @@
         <v>1706.874443424602</v>
       </c>
       <c r="W39" t="n">
-        <v>1480.271192118017</v>
+        <v>1465.558574657912</v>
       </c>
       <c r="X39" t="n">
-        <v>1282.354203995812</v>
+        <v>1267.641586535707</v>
       </c>
       <c r="Y39" t="n">
-        <v>1089.832877645391</v>
+        <v>1075.120260185286</v>
       </c>
     </row>
     <row r="40">
@@ -7324,16 +7324,16 @@
         <v>51.10067436208574</v>
       </c>
       <c r="H40" t="n">
-        <v>59.36731927228439</v>
+        <v>51.10067436208574</v>
       </c>
       <c r="I40" t="n">
-        <v>59.36731927228439</v>
+        <v>74.23504503930334</v>
       </c>
       <c r="J40" t="n">
-        <v>59.36731927228439</v>
+        <v>74.23504503930334</v>
       </c>
       <c r="K40" t="n">
-        <v>92.9715070169278</v>
+        <v>130.9236227683826</v>
       </c>
       <c r="L40" t="n">
         <v>231.5307021686421</v>
@@ -7418,16 +7418,16 @@
         <v>711.1249637646204</v>
       </c>
       <c r="M41" t="n">
-        <v>1104.364130017708</v>
+        <v>1220.173075819082</v>
       </c>
       <c r="N41" t="n">
-        <v>1598.504434506798</v>
+        <v>1762.97220899783</v>
       </c>
       <c r="O41" t="n">
-        <v>1903.509018979632</v>
+        <v>2067.976793470664</v>
       </c>
       <c r="P41" t="n">
-        <v>2296.133689926718</v>
+        <v>2460.60146441775</v>
       </c>
       <c r="Q41" t="n">
         <v>2555.033718104287</v>
@@ -7512,10 +7512,10 @@
         <v>2555.033718104287</v>
       </c>
       <c r="R42" t="n">
-        <v>2495.249449199233</v>
+        <v>2509.962066659337</v>
       </c>
       <c r="S42" t="n">
-        <v>2342.449962211973</v>
+        <v>2357.162579672078</v>
       </c>
       <c r="T42" t="n">
         <v>2168.477475838063</v>
@@ -7543,76 +7543,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>54.02211951749089</v>
+        <v>52.90950739287317</v>
       </c>
       <c r="C43" t="n">
-        <v>52.21328648670345</v>
+        <v>51.10067436208573</v>
       </c>
       <c r="D43" t="n">
-        <v>52.21328648670345</v>
+        <v>51.10067436208573</v>
       </c>
       <c r="E43" t="n">
-        <v>52.21328648670345</v>
+        <v>66.5844139977867</v>
       </c>
       <c r="F43" t="n">
-        <v>52.21328648670345</v>
+        <v>66.5844139977867</v>
       </c>
       <c r="G43" t="n">
-        <v>51.10067436208573</v>
+        <v>65.47180187316897</v>
       </c>
       <c r="H43" t="n">
-        <v>51.10067436208573</v>
+        <v>73.73844678336762</v>
       </c>
       <c r="I43" t="n">
-        <v>51.10067436208573</v>
+        <v>73.73844678336762</v>
       </c>
       <c r="J43" t="n">
-        <v>97.31943502373917</v>
+        <v>73.73844678336762</v>
       </c>
       <c r="K43" t="n">
-        <v>130.9236227683826</v>
+        <v>107.342634528011</v>
       </c>
       <c r="L43" t="n">
-        <v>231.5307021686421</v>
+        <v>207.9497139282705</v>
       </c>
       <c r="M43" t="n">
-        <v>349.5242082962438</v>
+        <v>325.9432200558722</v>
       </c>
       <c r="N43" t="n">
-        <v>467.9465500458442</v>
+        <v>444.3655618054726</v>
       </c>
       <c r="O43" t="n">
-        <v>566.4101965415339</v>
+        <v>565.2975844169162</v>
       </c>
       <c r="P43" t="n">
-        <v>629.3786802696717</v>
+        <v>628.266068145054</v>
       </c>
       <c r="Q43" t="n">
-        <v>629.3786802696717</v>
+        <v>628.266068145054</v>
       </c>
       <c r="R43" t="n">
-        <v>629.3786802696717</v>
+        <v>628.266068145054</v>
       </c>
       <c r="S43" t="n">
-        <v>583.4760541808915</v>
+        <v>582.3634420562738</v>
       </c>
       <c r="T43" t="n">
-        <v>518.1042375041027</v>
+        <v>516.991625379485</v>
       </c>
       <c r="U43" t="n">
-        <v>398.7211345007348</v>
+        <v>397.608522376117</v>
       </c>
       <c r="V43" t="n">
-        <v>305.7929665666896</v>
+        <v>304.6803544420719</v>
       </c>
       <c r="W43" t="n">
-        <v>187.443701591621</v>
+        <v>186.3310894670033</v>
       </c>
       <c r="X43" t="n">
-        <v>123.9983739945291</v>
+        <v>122.8857618699114</v>
       </c>
       <c r="Y43" t="n">
-        <v>69.77035169433844</v>
+        <v>68.65773956972072</v>
       </c>
     </row>
     <row r="44">
@@ -7628,19 +7628,19 @@
         <v>1147.761190413098</v>
       </c>
       <c r="D44" t="n">
-        <v>942.744362147854</v>
+        <v>942.7443621478542</v>
       </c>
       <c r="E44" t="n">
-        <v>715.765778761493</v>
+        <v>715.7657787614933</v>
       </c>
       <c r="F44" t="n">
-        <v>469.4217245791957</v>
+        <v>469.4217245791961</v>
       </c>
       <c r="G44" t="n">
-        <v>221.1248745409159</v>
+        <v>221.1248745409167</v>
       </c>
       <c r="H44" t="n">
-        <v>56.11073664575746</v>
+        <v>56.11073664575834</v>
       </c>
       <c r="I44" t="n">
         <v>51.10067436208574</v>
@@ -7652,7 +7652,7 @@
         <v>363.2395906796742</v>
       </c>
       <c r="L44" t="n">
-        <v>875.5927382556528</v>
+        <v>875.5927382556529</v>
       </c>
       <c r="M44" t="n">
         <v>1268.831904508741</v>
@@ -7661,10 +7661,10 @@
         <v>1647.163263196456</v>
       </c>
       <c r="O44" t="n">
-        <v>1952.16784766929</v>
+        <v>2067.976793470664</v>
       </c>
       <c r="P44" t="n">
-        <v>2344.792518616376</v>
+        <v>2460.60146441775</v>
       </c>
       <c r="Q44" t="n">
         <v>2555.033718104287</v>
@@ -7691,7 +7691,7 @@
         <v>1813.858934499875</v>
       </c>
       <c r="Y44" t="n">
-        <v>1588.124215583245</v>
+        <v>1588.124215583246</v>
       </c>
     </row>
     <row r="45">
@@ -7749,13 +7749,13 @@
         <v>2555.033718104287</v>
       </c>
       <c r="R45" t="n">
-        <v>2495.249449199233</v>
+        <v>2509.962066659337</v>
       </c>
       <c r="S45" t="n">
-        <v>2342.449962211973</v>
+        <v>2357.162579672078</v>
       </c>
       <c r="T45" t="n">
-        <v>2153.764858377959</v>
+        <v>2168.477475838063</v>
       </c>
       <c r="U45" t="n">
         <v>1949.982683436373</v>
@@ -7780,76 +7780,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>54.02211951749091</v>
+        <v>52.90950739287315</v>
       </c>
       <c r="C46" t="n">
-        <v>52.21328648670347</v>
+        <v>51.10067436208574</v>
       </c>
       <c r="D46" t="n">
-        <v>52.21328648670347</v>
+        <v>51.10067436208574</v>
       </c>
       <c r="E46" t="n">
-        <v>52.21328648670347</v>
+        <v>66.58441399778674</v>
       </c>
       <c r="F46" t="n">
-        <v>52.21328648670347</v>
+        <v>66.58441399778674</v>
       </c>
       <c r="G46" t="n">
-        <v>51.10067436208574</v>
+        <v>65.47180187316904</v>
       </c>
       <c r="H46" t="n">
-        <v>51.10067436208574</v>
+        <v>65.47180187316904</v>
       </c>
       <c r="I46" t="n">
-        <v>51.10067436208574</v>
+        <v>88.60617255038667</v>
       </c>
       <c r="J46" t="n">
-        <v>51.10067436208574</v>
+        <v>88.60617255038667</v>
       </c>
       <c r="K46" t="n">
-        <v>84.70486210672915</v>
+        <v>122.2103602950301</v>
       </c>
       <c r="L46" t="n">
-        <v>185.3119415069887</v>
+        <v>230.4180900440243</v>
       </c>
       <c r="M46" t="n">
-        <v>303.3054476345904</v>
+        <v>348.411596171626</v>
       </c>
       <c r="N46" t="n">
-        <v>421.7277893841908</v>
+        <v>466.8339379212264</v>
       </c>
       <c r="O46" t="n">
-        <v>566.4101965415339</v>
+        <v>565.297584416916</v>
       </c>
       <c r="P46" t="n">
-        <v>629.3786802696717</v>
+        <v>628.2660681450539</v>
       </c>
       <c r="Q46" t="n">
-        <v>629.3786802696717</v>
+        <v>628.2660681450539</v>
       </c>
       <c r="R46" t="n">
-        <v>629.3786802696717</v>
+        <v>628.2660681450539</v>
       </c>
       <c r="S46" t="n">
-        <v>583.4760541808915</v>
+        <v>582.3634420562737</v>
       </c>
       <c r="T46" t="n">
-        <v>518.1042375041027</v>
+        <v>516.9916253794848</v>
       </c>
       <c r="U46" t="n">
-        <v>398.7211345007349</v>
+        <v>397.608522376117</v>
       </c>
       <c r="V46" t="n">
-        <v>305.7929665666898</v>
+        <v>304.6803544420719</v>
       </c>
       <c r="W46" t="n">
-        <v>187.4437015916211</v>
+        <v>186.3310894670033</v>
       </c>
       <c r="X46" t="n">
-        <v>123.9983739945291</v>
+        <v>122.8857618699113</v>
       </c>
       <c r="Y46" t="n">
-        <v>69.77035169433847</v>
+        <v>68.65773956972069</v>
       </c>
     </row>
   </sheetData>
@@ -7985,7 +7985,7 @@
         <v>542.9595789155856</v>
       </c>
       <c r="M2" t="n">
-        <v>584.3675935406823</v>
+        <v>578.7376103887912</v>
       </c>
       <c r="N2" t="n">
         <v>568.5510017355793</v>
@@ -7994,10 +7994,10 @@
         <v>495.0402356415689</v>
       </c>
       <c r="P2" t="n">
-        <v>317.3222226361502</v>
+        <v>418.3383206229274</v>
       </c>
       <c r="Q2" t="n">
-        <v>276.0094878578761</v>
+        <v>180.6233730229902</v>
       </c>
       <c r="R2" t="n">
         <v>85.43134583487716</v>
@@ -8055,10 +8055,10 @@
         <v>13.1634712931604</v>
       </c>
       <c r="J3" t="n">
-        <v>163.9183459425315</v>
+        <v>103.0555716666667</v>
       </c>
       <c r="K3" t="n">
-        <v>343.8048081163522</v>
+        <v>111.9961691666667</v>
       </c>
       <c r="L3" t="n">
         <v>482.0924488944969</v>
@@ -8070,10 +8070,10 @@
         <v>606.5066237084872</v>
       </c>
       <c r="O3" t="n">
-        <v>442.919192412975</v>
+        <v>430.4432124307501</v>
       </c>
       <c r="P3" t="n">
-        <v>108.8542060241433</v>
+        <v>414.0015992319183</v>
       </c>
       <c r="Q3" t="n">
         <v>113.7351914448925</v>
@@ -8216,7 +8216,7 @@
         <v>219.8255997236959</v>
       </c>
       <c r="K5" t="n">
-        <v>421.3890363425141</v>
+        <v>320.3729383557372</v>
       </c>
       <c r="L5" t="n">
         <v>542.9595789155856</v>
@@ -8225,7 +8225,7 @@
         <v>584.3675935406823</v>
       </c>
       <c r="N5" t="n">
-        <v>467.5349037488024</v>
+        <v>568.5510017355793</v>
       </c>
       <c r="O5" t="n">
         <v>495.0402356415689</v>
@@ -8292,13 +8292,13 @@
         <v>13.1634712931604</v>
       </c>
       <c r="J6" t="n">
-        <v>163.9183459425315</v>
+        <v>103.0555716666667</v>
       </c>
       <c r="K6" t="n">
-        <v>111.9961691666667</v>
+        <v>343.8048081163522</v>
       </c>
       <c r="L6" t="n">
-        <v>180.2865893779226</v>
+        <v>482.0924488944969</v>
       </c>
       <c r="M6" t="n">
         <v>605.4165828749999</v>
@@ -8307,13 +8307,13 @@
         <v>606.5066237084872</v>
       </c>
       <c r="O6" t="n">
-        <v>512.0210150597484</v>
+        <v>503.7819666888396</v>
       </c>
       <c r="P6" t="n">
-        <v>414.0015992319183</v>
+        <v>108.8542060241433</v>
       </c>
       <c r="Q6" t="n">
-        <v>273.1004740566038</v>
+        <v>113.7351914448925</v>
       </c>
       <c r="R6" t="n">
         <v>59.17817075471706</v>
@@ -8529,10 +8529,10 @@
         <v>13.1634712931604</v>
       </c>
       <c r="J9" t="n">
-        <v>103.0555716666667</v>
+        <v>163.9183459425315</v>
       </c>
       <c r="K9" t="n">
-        <v>111.9961691666667</v>
+        <v>343.8048081163522</v>
       </c>
       <c r="L9" t="n">
         <v>482.0924488944969</v>
@@ -8541,16 +8541,16 @@
         <v>605.4165828749999</v>
       </c>
       <c r="N9" t="n">
-        <v>466.5796364545544</v>
+        <v>623.1450866466196</v>
       </c>
       <c r="O9" t="n">
         <v>512.0210150597484</v>
       </c>
       <c r="P9" t="n">
-        <v>414.0015992319183</v>
+        <v>124.1300184260142</v>
       </c>
       <c r="Q9" t="n">
-        <v>273.1004740566038</v>
+        <v>113.7351914448925</v>
       </c>
       <c r="R9" t="n">
         <v>59.17817075471706</v>
@@ -8766,10 +8766,10 @@
         <v>13.1634712931604</v>
       </c>
       <c r="J12" t="n">
-        <v>103.0555716666667</v>
+        <v>163.9183459425315</v>
       </c>
       <c r="K12" t="n">
-        <v>328.75754779113</v>
+        <v>343.8048081163522</v>
       </c>
       <c r="L12" t="n">
         <v>482.0924488944969</v>
@@ -8784,7 +8784,7 @@
         <v>512.0210150597484</v>
       </c>
       <c r="P12" t="n">
-        <v>414.0015992319183</v>
+        <v>338.0915646308313</v>
       </c>
       <c r="Q12" t="n">
         <v>273.1004740566038</v>
@@ -9006,7 +9006,7 @@
         <v>163.9183459425315</v>
       </c>
       <c r="K15" t="n">
-        <v>267.8947735152652</v>
+        <v>343.8048081163522</v>
       </c>
       <c r="L15" t="n">
         <v>482.0924488944969</v>
@@ -9024,7 +9024,7 @@
         <v>414.0015992319183</v>
       </c>
       <c r="Q15" t="n">
-        <v>273.1004740566038</v>
+        <v>197.1904394555166</v>
       </c>
       <c r="R15" t="n">
         <v>59.17817075471706</v>
@@ -9258,10 +9258,10 @@
         <v>512.0210150597484</v>
       </c>
       <c r="P18" t="n">
-        <v>414.0015992319183</v>
+        <v>338.0915646308304</v>
       </c>
       <c r="Q18" t="n">
-        <v>197.1904394555162</v>
+        <v>273.1004740566038</v>
       </c>
       <c r="R18" t="n">
         <v>59.17817075471706</v>
@@ -9477,10 +9477,10 @@
         <v>13.1634712931604</v>
       </c>
       <c r="J21" t="n">
-        <v>103.0555716666667</v>
+        <v>163.9183459425315</v>
       </c>
       <c r="K21" t="n">
-        <v>328.75754779113</v>
+        <v>343.8048081163522</v>
       </c>
       <c r="L21" t="n">
         <v>482.0924488944969</v>
@@ -9492,7 +9492,7 @@
         <v>623.1450866466196</v>
       </c>
       <c r="O21" t="n">
-        <v>512.0210150597484</v>
+        <v>436.1109804586614</v>
       </c>
       <c r="P21" t="n">
         <v>414.0015992319183</v>
@@ -9717,7 +9717,7 @@
         <v>163.9183459425315</v>
       </c>
       <c r="K24" t="n">
-        <v>267.8947735152652</v>
+        <v>343.8048081163522</v>
       </c>
       <c r="L24" t="n">
         <v>482.0924488944969</v>
@@ -9735,7 +9735,7 @@
         <v>414.0015992319183</v>
       </c>
       <c r="Q24" t="n">
-        <v>273.1004740566038</v>
+        <v>197.1904394555162</v>
       </c>
       <c r="R24" t="n">
         <v>59.17817075471706</v>
@@ -10911,7 +10911,7 @@
         <v>605.4165828749999</v>
       </c>
       <c r="N39" t="n">
-        <v>623.1450866466193</v>
+        <v>623.1450866466196</v>
       </c>
       <c r="O39" t="n">
         <v>512.0210150597484</v>
@@ -23273,10 +23273,10 @@
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>34.42363774311718</v>
+        <v>219.5719161348819</v>
       </c>
       <c r="I11" t="n">
-        <v>61.16788127951006</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23306,25 +23306,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>75.43554009216768</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
         <v>112.194211282517</v>
       </c>
       <c r="U11" t="n">
-        <v>142.415337399364</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>223.6883358392362</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
         <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>37.87352487237459</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>279.6852913461385</v>
       </c>
     </row>
     <row r="12">
@@ -23416,10 +23416,10 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>57.99866431915461</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>25.65917932556931</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
@@ -23464,7 +23464,7 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>83.65784364472387</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
@@ -23495,7 +23495,7 @@
         <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>251.1419720818172</v>
       </c>
       <c r="D14" t="n">
         <v>259.1745796012668</v>
@@ -23510,7 +23510,7 @@
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>43.25153103559092</v>
+        <v>219.5719161348819</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -23543,19 +23543,19 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>75.43554009216768</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>112.194211282517</v>
       </c>
       <c r="U14" t="n">
-        <v>142.415337399364</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>223.6883358392362</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>248.9884353171931</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
         <v>0</v>
@@ -23656,22 +23656,22 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>41.620028716733</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>41.03470290069876</v>
+        <v>2.960201970419881</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>47.85777324473702</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>32.83986842956637</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23710,7 +23710,7 @@
         <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>1.003112027291451</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
@@ -23735,7 +23735,7 @@
         <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>3.126388037344441e-13</v>
+        <v>0</v>
       </c>
       <c r="E17" t="n">
         <v>0</v>
@@ -24029,7 +24029,7 @@
         <v>0</v>
       </c>
       <c r="W20" t="n">
-        <v>0</v>
+        <v>-3.146695672876004e-13</v>
       </c>
       <c r="X20" t="n">
         <v>0</v>
@@ -24443,7 +24443,7 @@
         <v>0</v>
       </c>
       <c r="C26" t="n">
-        <v>264.6842555723119</v>
+        <v>0</v>
       </c>
       <c r="D26" t="n">
         <v>0</v>
@@ -24458,7 +24458,7 @@
         <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>216.0628961504551</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -24491,7 +24491,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>0</v>
+        <v>71.92652010774084</v>
       </c>
       <c r="T26" t="n">
         <v>0</v>
@@ -24500,10 +24500,10 @@
         <v>0</v>
       </c>
       <c r="V26" t="n">
-        <v>0</v>
+        <v>37.59057569560714</v>
       </c>
       <c r="W26" t="n">
-        <v>60.89573638149088</v>
+        <v>0</v>
       </c>
       <c r="X26" t="n">
         <v>0</v>
@@ -24683,7 +24683,7 @@
         <v>0</v>
       </c>
       <c r="D29" t="n">
-        <v>0</v>
+        <v>255.6655596168399</v>
       </c>
       <c r="E29" t="n">
         <v>0</v>
@@ -24692,7 +24692,7 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>186.6736745388654</v>
+        <v>0</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -24731,10 +24731,10 @@
         <v>0</v>
       </c>
       <c r="T29" t="n">
-        <v>0</v>
+        <v>69.91443233696376</v>
       </c>
       <c r="U29" t="n">
-        <v>138.9063174149371</v>
+        <v>0</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -25883,7 +25883,7 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
+        <v>-8.917311333789257e-13</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -25928,7 +25928,7 @@
         <v>0</v>
       </c>
       <c r="X44" t="n">
-        <v>-3.797967004547573e-13</v>
+        <v>0</v>
       </c>
       <c r="Y44" t="n">
         <v>0</v>
@@ -26235,7 +26235,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>825195.8650312452</v>
+        <v>825195.8650312454</v>
       </c>
     </row>
   </sheetData>
@@ -26311,49 +26311,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>518146.2408335729</v>
+        <v>518146.2408335728</v>
       </c>
       <c r="C2" t="n">
-        <v>518146.2408335729</v>
+        <v>518146.2408335728</v>
       </c>
       <c r="D2" t="n">
-        <v>518146.2408335727</v>
+        <v>518146.2408335728</v>
       </c>
       <c r="E2" t="n">
-        <v>467492.7298493068</v>
+        <v>467492.7298493067</v>
       </c>
       <c r="F2" t="n">
-        <v>467492.7298493068</v>
+        <v>467492.7298493067</v>
       </c>
       <c r="G2" t="n">
-        <v>518146.2408335723</v>
+        <v>518146.2408335725</v>
       </c>
       <c r="H2" t="n">
-        <v>518146.2408335725</v>
+        <v>518146.2408335726</v>
       </c>
       <c r="I2" t="n">
-        <v>518146.2408335724</v>
+        <v>518146.2408335726</v>
       </c>
       <c r="J2" t="n">
-        <v>500652.8278658947</v>
+        <v>500652.8278658946</v>
       </c>
       <c r="K2" t="n">
-        <v>500652.8278658944</v>
+        <v>500652.8278658945</v>
       </c>
       <c r="L2" t="n">
+        <v>518146.240833573</v>
+      </c>
+      <c r="M2" t="n">
         <v>518146.2408335731</v>
       </c>
-      <c r="M2" t="n">
-        <v>518146.240833573</v>
-      </c>
       <c r="N2" t="n">
+        <v>518146.2408335732</v>
+      </c>
+      <c r="O2" t="n">
         <v>518146.2408335733</v>
       </c>
-      <c r="O2" t="n">
-        <v>518146.2408335732</v>
-      </c>
       <c r="P2" t="n">
-        <v>518146.2408335732</v>
+        <v>518146.2408335733</v>
       </c>
     </row>
     <row r="3">
@@ -26369,7 +26369,7 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>7924.705156238815</v>
+        <v>7924.705156238812</v>
       </c>
       <c r="E3" t="n">
         <v>116088.0659382698</v>
@@ -26393,16 +26393,16 @@
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>71578.88473510898</v>
+        <v>71578.88473510896</v>
       </c>
       <c r="M3" t="n">
-        <v>19514.53999589762</v>
+        <v>19514.53999589767</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>41809.82738295895</v>
+        <v>41809.82738295894</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26476,28 +26476,28 @@
         <v>65566.03463691141</v>
       </c>
       <c r="E5" t="n">
-        <v>46911.86697100239</v>
+        <v>46911.8669710024</v>
       </c>
       <c r="F5" t="n">
-        <v>46911.86697100239</v>
+        <v>46911.8669710024</v>
       </c>
       <c r="G5" t="n">
         <v>52054.18958228952</v>
       </c>
       <c r="H5" t="n">
-        <v>52054.18958228952</v>
+        <v>52054.18958228953</v>
       </c>
       <c r="I5" t="n">
         <v>52054.18958228952</v>
       </c>
       <c r="J5" t="n">
-        <v>55656.05714269899</v>
+        <v>55656.05714269898</v>
       </c>
       <c r="K5" t="n">
-        <v>55656.05714269899</v>
+        <v>55656.05714269898</v>
       </c>
       <c r="L5" t="n">
-        <v>56484.57861505464</v>
+        <v>56484.57861505465</v>
       </c>
       <c r="M5" t="n">
         <v>52802.81689264638</v>
@@ -26509,7 +26509,7 @@
         <v>52802.81689264637</v>
       </c>
       <c r="P5" t="n">
-        <v>52802.81689264637</v>
+        <v>52802.81689264638</v>
       </c>
     </row>
     <row r="6">
@@ -26519,46 +26519,46 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>93988.29024499966</v>
+        <v>93988.29024499955</v>
       </c>
       <c r="C6" t="n">
-        <v>261479.9112820255</v>
+        <v>261479.9112820254</v>
       </c>
       <c r="D6" t="n">
-        <v>258879.7417071293</v>
+        <v>258879.7417071295</v>
       </c>
       <c r="E6" t="n">
-        <v>169756.4905878385</v>
+        <v>169568.8849916004</v>
       </c>
       <c r="F6" t="n">
-        <v>285844.5565261084</v>
+        <v>285656.9509298701</v>
       </c>
       <c r="G6" t="n">
-        <v>239830.0481474592</v>
+        <v>239830.0481474594</v>
       </c>
       <c r="H6" t="n">
+        <v>288764.3531710675</v>
+      </c>
+      <c r="I6" t="n">
         <v>288764.3531710674</v>
       </c>
-      <c r="I6" t="n">
-        <v>288764.3531710673</v>
-      </c>
       <c r="J6" t="n">
-        <v>74507.60292113919</v>
+        <v>74442.81250274026</v>
       </c>
       <c r="K6" t="n">
-        <v>283444.7408390174</v>
+        <v>283379.9504206187</v>
       </c>
       <c r="L6" t="n">
         <v>213984.6436555215</v>
       </c>
       <c r="M6" t="n">
-        <v>270205.7634047934</v>
+        <v>270205.7634047933</v>
       </c>
       <c r="N6" t="n">
-        <v>289720.3034006912</v>
+        <v>289720.3034006911</v>
       </c>
       <c r="O6" t="n">
-        <v>247910.4760177322</v>
+        <v>247910.4760177323</v>
       </c>
       <c r="P6" t="n">
         <v>289720.3034006912</v>
@@ -26725,7 +26725,7 @@
         <v>166.1290651424569</v>
       </c>
       <c r="P2" t="n">
-        <v>166.1290651424569</v>
+        <v>166.129065142457</v>
       </c>
     </row>
     <row r="3">
@@ -26796,16 +26796,16 @@
         <v>525.3032012649903</v>
       </c>
       <c r="E4" t="n">
-        <v>619.5872728283482</v>
+        <v>619.5872728283483</v>
       </c>
       <c r="F4" t="n">
-        <v>619.5872728283482</v>
+        <v>619.5872728283483</v>
       </c>
       <c r="G4" t="n">
-        <v>619.5872728283482</v>
+        <v>619.5872728283481</v>
       </c>
       <c r="H4" t="n">
-        <v>619.5872728283482</v>
+        <v>619.5872728283483</v>
       </c>
       <c r="I4" t="n">
         <v>619.5872728283482</v>
@@ -26817,7 +26817,7 @@
         <v>758.5542197136413</v>
       </c>
       <c r="L4" t="n">
-        <v>733.0425010894297</v>
+        <v>733.0425010894299</v>
       </c>
       <c r="M4" t="n">
         <v>638.7584295260718</v>
@@ -26929,22 +26929,22 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>52.26228422869869</v>
+        <v>52.26228422869868</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>89.47360591888622</v>
+        <v>89.47360591888621</v>
       </c>
       <c r="M2" t="n">
-        <v>24.39317499487203</v>
+        <v>24.39317499487208</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>52.26228422869869</v>
+        <v>52.26228422869868</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -27015,10 +27015,10 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>25.51171862421149</v>
+        <v>25.51171862421148</v>
       </c>
       <c r="E4" t="n">
-        <v>94.28407156335788</v>
+        <v>94.284071563358</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>638.758429526072</v>
+        <v>638.7584295260718</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27166,7 +27166,7 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>52.26228422869869</v>
+        <v>52.26228422869868</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -27261,10 +27261,10 @@
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>25.51171862421149</v>
+        <v>25.51171862421148</v>
       </c>
       <c r="M4" t="n">
-        <v>94.28407156335788</v>
+        <v>94.284071563358</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27376,28 +27376,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>390.1031041228389</v>
       </c>
       <c r="C2" t="n">
-        <v>378.1144210805207</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
         <v>369.0957251250487</v>
       </c>
       <c r="E2" t="n">
-        <v>390.8378626949542</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>400</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H2" t="n">
-        <v>329.4930616586638</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>171.0890268032919</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27424,22 +27424,22 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>89.73190363910518</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>222.1153568062989</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>333.6094813630181</v>
       </c>
       <c r="W2" t="n">
-        <v>314.5244349422822</v>
+        <v>148.4989612484521</v>
       </c>
       <c r="X2" t="n">
         <v>378.2098390737216</v>
@@ -27455,13 +27455,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>25.18128954170621</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>48.58413498890968</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
         <v>145.5577298436975</v>
@@ -27470,10 +27470,10 @@
         <v>133.3468600696244</v>
       </c>
       <c r="G3" t="n">
-        <v>127.4412149769483</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>98.93847887876893</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -27503,7 +27503,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>59.18642621600367</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -27524,7 +27524,7 @@
         <v>0</v>
       </c>
       <c r="Y3" t="n">
-        <v>0</v>
+        <v>190.5961130869169</v>
       </c>
     </row>
     <row r="4">
@@ -27534,25 +27534,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>51.8409115105774</v>
+        <v>181.719814997536</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.9198098429365</v>
       </c>
       <c r="D4" t="n">
-        <v>151.5411742405149</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>150.4889240962943</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>150.9558484244806</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>167.2305511458285</v>
       </c>
       <c r="H4" t="n">
-        <v>157.7789187685189</v>
+        <v>84.02621273633575</v>
       </c>
       <c r="I4" t="n">
         <v>142.7610139533483</v>
@@ -27600,7 +27600,7 @@
         <v>283.2948374677749</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>228.939939463578</v>
       </c>
       <c r="Y4" t="n">
         <v>219.8148072196457</v>
@@ -27613,19 +27613,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>388.7227917280348</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>369.0957251250487</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>390.8378626949542</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
         <v>400</v>
@@ -27661,28 +27661,28 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>89.73190363910518</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>185.3566856159496</v>
       </c>
       <c r="T5" t="n">
         <v>222.1153568062989</v>
       </c>
       <c r="U5" t="n">
-        <v>101.2203552454497</v>
+        <v>252.3364829231459</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>333.6094813630181</v>
       </c>
       <c r="W5" t="n">
         <v>358.909580840975</v>
       </c>
       <c r="X5" t="n">
-        <v>378.2098390737216</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>389.6064368699203</v>
       </c>
     </row>
     <row r="6">
@@ -27701,19 +27701,19 @@
         <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>0</v>
+        <v>145.5577298436975</v>
       </c>
       <c r="F6" t="n">
-        <v>133.3468600696244</v>
+        <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0</v>
+        <v>127.4412149769483</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>98.93847887876893</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>67.69846245683961</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -27743,10 +27743,10 @@
         <v>59.18642621600367</v>
       </c>
       <c r="S6" t="n">
-        <v>151.2714921173871</v>
+        <v>0</v>
       </c>
       <c r="T6" t="n">
-        <v>186.7982527956746</v>
+        <v>55.04610638569073</v>
       </c>
       <c r="U6" t="n">
         <v>0</v>
@@ -27755,7 +27755,7 @@
         <v>0</v>
       </c>
       <c r="W6" t="n">
-        <v>23.26538755925856</v>
+        <v>0</v>
       </c>
       <c r="X6" t="n">
         <v>0</v>
@@ -27771,10 +27771,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>132.2210650560333</v>
+        <v>181.719814997536</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.9198098429365</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
@@ -27789,7 +27789,7 @@
         <v>167.2305511458285</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>157.7789187685189</v>
       </c>
       <c r="I7" t="n">
         <v>142.7610139533483</v>
@@ -27825,10 +27825,10 @@
         <v>211.5726649703493</v>
       </c>
       <c r="T7" t="n">
-        <v>230.8471636524779</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>284.3183371157911</v>
+        <v>139.9680222153108</v>
       </c>
       <c r="V7" t="n">
         <v>258.1279513971616</v>
@@ -27853,16 +27853,16 @@
         <v>390.1031041228389</v>
       </c>
       <c r="C8" t="n">
-        <v>378.1144210805207</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>369.0957251250487</v>
+        <v>257.7269278207273</v>
       </c>
       <c r="E8" t="n">
-        <v>320.144646771451</v>
+        <v>390.8378626949542</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
         <v>400</v>
@@ -27898,25 +27898,25 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>89.73190363910518</v>
       </c>
       <c r="S8" t="n">
         <v>185.3566856159496</v>
       </c>
       <c r="T8" t="n">
-        <v>222.1153568062989</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>252.3364829231459</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>333.6094813630181</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>358.909580840975</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>378.2098390737216</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -27935,10 +27935,10 @@
         <v>0</v>
       </c>
       <c r="D9" t="n">
-        <v>137.45025063969</v>
+        <v>0</v>
       </c>
       <c r="E9" t="n">
-        <v>0</v>
+        <v>145.5577298436975</v>
       </c>
       <c r="F9" t="n">
         <v>0</v>
@@ -27977,10 +27977,10 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>59.18642621600367</v>
+        <v>0</v>
       </c>
       <c r="S9" t="n">
-        <v>151.2714921173871</v>
+        <v>0</v>
       </c>
       <c r="T9" t="n">
         <v>0</v>
@@ -27992,13 +27992,13 @@
         <v>0</v>
       </c>
       <c r="W9" t="n">
-        <v>106.9543721480277</v>
+        <v>0</v>
       </c>
       <c r="X9" t="n">
-        <v>0</v>
+        <v>195.9378182409833</v>
       </c>
       <c r="Y9" t="n">
-        <v>0</v>
+        <v>113.366993036428</v>
       </c>
     </row>
     <row r="10">
@@ -28008,19 +28008,19 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>181.719814997536</v>
       </c>
       <c r="C10" t="n">
-        <v>167.9198098429365</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>107.9671089653528</v>
+        <v>151.5411742405149</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>150.9558484244806</v>
       </c>
       <c r="G10" t="n">
         <v>167.2305511458285</v>
@@ -28077,7 +28077,7 @@
         <v>228.939939463578</v>
       </c>
       <c r="Y10" t="n">
-        <v>219.8148072196457</v>
+        <v>11.48488836540341</v>
       </c>
     </row>
     <row r="11">
@@ -28111,13 +28111,13 @@
         <v>109.9211455237819</v>
       </c>
       <c r="J11" t="n">
-        <v>0</v>
+        <v>23.37415036050581</v>
       </c>
       <c r="K11" t="n">
         <v>109.9211455237819</v>
       </c>
       <c r="L11" t="n">
-        <v>0</v>
+        <v>109.9211455237819</v>
       </c>
       <c r="M11" t="n">
         <v>0</v>
@@ -28126,16 +28126,16 @@
         <v>109.9211455237819</v>
       </c>
       <c r="O11" t="n">
-        <v>43.56339224518211</v>
+        <v>0</v>
       </c>
       <c r="P11" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q11" t="n">
+        <v>0</v>
+      </c>
+      <c r="R11" t="n">
         <v>109.9211455237819</v>
-      </c>
-      <c r="Q11" t="n">
-        <v>0</v>
-      </c>
-      <c r="R11" t="n">
-        <v>89.73190363910518</v>
       </c>
       <c r="S11" t="n">
         <v>109.9211455237819</v>
@@ -28184,10 +28184,10 @@
         <v>0</v>
       </c>
       <c r="H12" t="n">
-        <v>88.96491619802936</v>
+        <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>67.69846245683961</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -28220,7 +28220,7 @@
         <v>0</v>
       </c>
       <c r="T12" t="n">
-        <v>0</v>
+        <v>21.26645374118928</v>
       </c>
       <c r="U12" t="n">
         <v>0</v>
@@ -28348,28 +28348,28 @@
         <v>109.9211455237819</v>
       </c>
       <c r="J14" t="n">
-        <v>43.56339224518211</v>
+        <v>0</v>
       </c>
       <c r="K14" t="n">
+        <v>0</v>
+      </c>
+      <c r="L14" t="n">
+        <v>0</v>
+      </c>
+      <c r="M14" t="n">
+        <v>43.56339224518263</v>
+      </c>
+      <c r="N14" t="n">
+        <v>0</v>
+      </c>
+      <c r="O14" t="n">
         <v>109.9211455237819</v>
-      </c>
-      <c r="L14" t="n">
-        <v>0</v>
-      </c>
-      <c r="M14" t="n">
-        <v>0</v>
-      </c>
-      <c r="N14" t="n">
-        <v>109.9211455237819</v>
-      </c>
-      <c r="O14" t="n">
-        <v>0</v>
       </c>
       <c r="P14" t="n">
         <v>109.9211455237819</v>
       </c>
       <c r="Q14" t="n">
-        <v>0</v>
+        <v>109.9211455237819</v>
       </c>
       <c r="R14" t="n">
         <v>89.73190363910518</v>
@@ -28406,7 +28406,7 @@
         <v>0</v>
       </c>
       <c r="C15" t="n">
-        <v>0</v>
+        <v>88.96491619802896</v>
       </c>
       <c r="D15" t="n">
         <v>0</v>
@@ -28424,7 +28424,7 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>29.77848998202525</v>
+        <v>0</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -28451,7 +28451,7 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>59.18642621600367</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -28585,19 +28585,19 @@
         <v>171.0890268032919</v>
       </c>
       <c r="J17" t="n">
-        <v>0</v>
+        <v>171.0890268032919</v>
       </c>
       <c r="K17" t="n">
         <v>171.0890268032919</v>
       </c>
       <c r="L17" t="n">
-        <v>171.0890268032919</v>
+        <v>0</v>
       </c>
       <c r="M17" t="n">
         <v>0</v>
       </c>
       <c r="N17" t="n">
-        <v>0</v>
+        <v>31.14877520994344</v>
       </c>
       <c r="O17" t="n">
         <v>0</v>
@@ -28606,7 +28606,7 @@
         <v>0</v>
       </c>
       <c r="Q17" t="n">
-        <v>31.14877520994393</v>
+        <v>0</v>
       </c>
       <c r="R17" t="n">
         <v>89.73190363910518</v>
@@ -28643,7 +28643,7 @@
         <v>0</v>
       </c>
       <c r="C18" t="n">
-        <v>0</v>
+        <v>29.77848998202575</v>
       </c>
       <c r="D18" t="n">
         <v>0</v>
@@ -28688,7 +28688,7 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>59.18642621600367</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -28709,7 +28709,7 @@
         <v>0</v>
       </c>
       <c r="Y18" t="n">
-        <v>88.96491619802934</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19">
@@ -28725,7 +28725,7 @@
         <v>167.9198098429365</v>
       </c>
       <c r="D19" t="n">
-        <v>154.7904845807923</v>
+        <v>151.5411742405149</v>
       </c>
       <c r="E19" t="n">
         <v>150.4889240962943</v>
@@ -28749,7 +28749,7 @@
         <v>0</v>
       </c>
       <c r="L19" t="n">
-        <v>0</v>
+        <v>3.249310340277347</v>
       </c>
       <c r="M19" t="n">
         <v>0</v>
@@ -28831,22 +28831,22 @@
         <v>0</v>
       </c>
       <c r="M20" t="n">
-        <v>0</v>
+        <v>171.0890268032919</v>
       </c>
       <c r="N20" t="n">
         <v>0</v>
       </c>
       <c r="O20" t="n">
+        <v>0</v>
+      </c>
+      <c r="P20" t="n">
+        <v>120.8806788490497</v>
+      </c>
+      <c r="Q20" t="n">
+        <v>0</v>
+      </c>
+      <c r="R20" t="n">
         <v>171.0890268032919</v>
-      </c>
-      <c r="P20" t="n">
-        <v>171.0890268032919</v>
-      </c>
-      <c r="Q20" t="n">
-        <v>31.14877520994393</v>
-      </c>
-      <c r="R20" t="n">
-        <v>89.73190363910518</v>
       </c>
       <c r="S20" t="n">
         <v>171.0890268032919</v>
@@ -28898,7 +28898,7 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>67.69846245683961</v>
+        <v>0</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -28925,10 +28925,10 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>21.26645374118933</v>
+        <v>59.18642621600367</v>
       </c>
       <c r="S21" t="n">
-        <v>0</v>
+        <v>29.77848998202506</v>
       </c>
       <c r="T21" t="n">
         <v>0</v>
@@ -29059,19 +29059,19 @@
         <v>171.0890268032919</v>
       </c>
       <c r="J23" t="n">
-        <v>0</v>
+        <v>171.0890268032919</v>
       </c>
       <c r="K23" t="n">
         <v>0</v>
       </c>
       <c r="L23" t="n">
+        <v>0</v>
+      </c>
+      <c r="M23" t="n">
+        <v>0</v>
+      </c>
+      <c r="N23" t="n">
         <v>171.0890268032919</v>
-      </c>
-      <c r="M23" t="n">
-        <v>171.0890268032919</v>
-      </c>
-      <c r="N23" t="n">
-        <v>0</v>
       </c>
       <c r="O23" t="n">
         <v>31.14877520994378</v>
@@ -29117,7 +29117,7 @@
         <v>0</v>
       </c>
       <c r="C24" t="n">
-        <v>88.9649161980294</v>
+        <v>0</v>
       </c>
       <c r="D24" t="n">
         <v>0</v>
@@ -29132,7 +29132,7 @@
         <v>0</v>
       </c>
       <c r="H24" t="n">
-        <v>0</v>
+        <v>88.96491619802936</v>
       </c>
       <c r="I24" t="n">
         <v>0</v>
@@ -29226,7 +29226,7 @@
         <v>0</v>
       </c>
       <c r="M25" t="n">
-        <v>0</v>
+        <v>3.249310340277432</v>
       </c>
       <c r="N25" t="n">
         <v>0</v>
@@ -29238,7 +29238,7 @@
         <v>0</v>
       </c>
       <c r="Q25" t="n">
-        <v>41.40127827312521</v>
+        <v>38.15196793284785</v>
       </c>
       <c r="R25" t="n">
         <v>148.0265635717656</v>
@@ -29299,7 +29299,7 @@
         <v>113.4301655082087</v>
       </c>
       <c r="K26" t="n">
-        <v>105.8703697943555</v>
+        <v>113.4301655082087</v>
       </c>
       <c r="L26" t="n">
         <v>113.4301655082087</v>
@@ -29311,7 +29311,7 @@
         <v>113.4301655082087</v>
       </c>
       <c r="O26" t="n">
-        <v>113.4301655082087</v>
+        <v>105.8703697943558</v>
       </c>
       <c r="P26" t="n">
         <v>113.4301655082087</v>
@@ -29360,7 +29360,7 @@
         <v>0</v>
       </c>
       <c r="E27" t="n">
-        <v>14.56549128550353</v>
+        <v>0</v>
       </c>
       <c r="F27" t="n">
         <v>0</v>
@@ -29399,7 +29399,7 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>14.56549128550315</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -29548,7 +29548,7 @@
         <v>113.4301655082087</v>
       </c>
       <c r="O29" t="n">
-        <v>113.4301655082087</v>
+        <v>105.8703697943558</v>
       </c>
       <c r="P29" t="n">
         <v>113.4301655082087</v>
@@ -29557,7 +29557,7 @@
         <v>113.4301655082087</v>
       </c>
       <c r="R29" t="n">
-        <v>105.870369794356</v>
+        <v>113.4301655082087</v>
       </c>
       <c r="S29" t="n">
         <v>113.4301655082087</v>
@@ -29588,7 +29588,7 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>14.56549128550353</v>
+        <v>0</v>
       </c>
       <c r="C30" t="n">
         <v>0</v>
@@ -29657,7 +29657,7 @@
         <v>0</v>
       </c>
       <c r="Y30" t="n">
-        <v>0</v>
+        <v>14.56549128550367</v>
       </c>
     </row>
     <row r="31">
@@ -29770,25 +29770,25 @@
         <v>141.7358901475849</v>
       </c>
       <c r="J32" t="n">
-        <v>0</v>
+        <v>141.7358901475849</v>
       </c>
       <c r="K32" t="n">
-        <v>0</v>
+        <v>141.7358901475849</v>
       </c>
       <c r="L32" t="n">
-        <v>141.7358901475849</v>
+        <v>61.88025498774039</v>
       </c>
       <c r="M32" t="n">
-        <v>141.7358901475849</v>
+        <v>0</v>
       </c>
       <c r="N32" t="n">
-        <v>141.7358901475849</v>
+        <v>0</v>
       </c>
       <c r="O32" t="n">
         <v>141.7358901475849</v>
       </c>
       <c r="P32" t="n">
-        <v>61.88025498773891</v>
+        <v>141.7358901475849</v>
       </c>
       <c r="Q32" t="n">
         <v>141.7358901475849</v>
@@ -29873,7 +29873,7 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>14.56549128550315</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -29888,7 +29888,7 @@
         <v>0</v>
       </c>
       <c r="W33" t="n">
-        <v>14.5654912855035</v>
+        <v>0</v>
       </c>
       <c r="X33" t="n">
         <v>0</v>
@@ -29931,25 +29931,25 @@
         <v>59.456666199969</v>
       </c>
       <c r="K34" t="n">
-        <v>0</v>
+        <v>64.27378155889745</v>
       </c>
       <c r="L34" t="n">
+        <v>0</v>
+      </c>
+      <c r="M34" t="n">
+        <v>0</v>
+      </c>
+      <c r="N34" t="n">
         <v>141.7358901475849</v>
       </c>
-      <c r="M34" t="n">
-        <v>0</v>
-      </c>
-      <c r="N34" t="n">
-        <v>0</v>
-      </c>
       <c r="O34" t="n">
+        <v>0</v>
+      </c>
+      <c r="P34" t="n">
         <v>141.7358901475849</v>
       </c>
-      <c r="P34" t="n">
-        <v>0</v>
-      </c>
       <c r="Q34" t="n">
-        <v>102.4257494917444</v>
+        <v>38.15196793284785</v>
       </c>
       <c r="R34" t="n">
         <v>141.7358901475849</v>
@@ -30010,22 +30010,22 @@
         <v>0</v>
       </c>
       <c r="K35" t="n">
-        <v>0</v>
+        <v>166.1290651424569</v>
       </c>
       <c r="L35" t="n">
-        <v>0</v>
+        <v>116.9787331327015</v>
       </c>
       <c r="M35" t="n">
+        <v>0</v>
+      </c>
+      <c r="N35" t="n">
+        <v>0</v>
+      </c>
+      <c r="O35" t="n">
+        <v>0</v>
+      </c>
+      <c r="P35" t="n">
         <v>166.1290651424569</v>
-      </c>
-      <c r="N35" t="n">
-        <v>116.9787331327014</v>
-      </c>
-      <c r="O35" t="n">
-        <v>166.1290651424569</v>
-      </c>
-      <c r="P35" t="n">
-        <v>0</v>
       </c>
       <c r="Q35" t="n">
         <v>0</v>
@@ -30110,7 +30110,7 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>14.56549128550315</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -30125,7 +30125,7 @@
         <v>0</v>
       </c>
       <c r="W36" t="n">
-        <v>14.56549128550327</v>
+        <v>0</v>
       </c>
       <c r="X36" t="n">
         <v>0</v>
@@ -30177,7 +30177,7 @@
         <v>0</v>
       </c>
       <c r="N37" t="n">
-        <v>28.58311525926162</v>
+        <v>0</v>
       </c>
       <c r="O37" t="n">
         <v>0</v>
@@ -30186,10 +30186,10 @@
         <v>0</v>
       </c>
       <c r="Q37" t="n">
-        <v>38.15196793284785</v>
+        <v>84.83758476280077</v>
       </c>
       <c r="R37" t="n">
-        <v>166.1290651424569</v>
+        <v>148.0265635717656</v>
       </c>
       <c r="S37" t="n">
         <v>166.1290651424569</v>
@@ -30244,7 +30244,7 @@
         <v>166.1290651424569</v>
       </c>
       <c r="J38" t="n">
-        <v>0</v>
+        <v>166.1290651424569</v>
       </c>
       <c r="K38" t="n">
         <v>166.1290651424569</v>
@@ -30256,19 +30256,19 @@
         <v>0</v>
       </c>
       <c r="N38" t="n">
-        <v>40.58157162934901</v>
+        <v>0</v>
       </c>
       <c r="O38" t="n">
-        <v>166.1290651424569</v>
+        <v>0</v>
       </c>
       <c r="P38" t="n">
         <v>0</v>
       </c>
       <c r="Q38" t="n">
-        <v>0</v>
+        <v>116.9787331327008</v>
       </c>
       <c r="R38" t="n">
-        <v>166.1290651424569</v>
+        <v>89.73190363910518</v>
       </c>
       <c r="S38" t="n">
         <v>166.1290651424569</v>
@@ -30299,7 +30299,7 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>0</v>
+        <v>14.56549128550375</v>
       </c>
       <c r="C39" t="n">
         <v>0</v>
@@ -30362,7 +30362,7 @@
         <v>0</v>
       </c>
       <c r="W39" t="n">
-        <v>14.56549128550373</v>
+        <v>0</v>
       </c>
       <c r="X39" t="n">
         <v>0</v>
@@ -30396,19 +30396,19 @@
         <v>166.1290651424569</v>
       </c>
       <c r="H40" t="n">
+        <v>157.7789187685189</v>
+      </c>
+      <c r="I40" t="n">
         <v>166.1290651424569</v>
-      </c>
-      <c r="I40" t="n">
-        <v>142.7610139533483</v>
       </c>
       <c r="J40" t="n">
         <v>59.456666199969</v>
       </c>
       <c r="K40" t="n">
-        <v>0</v>
+        <v>23.31756564084427</v>
       </c>
       <c r="L40" t="n">
-        <v>38.33547045601495</v>
+        <v>0</v>
       </c>
       <c r="M40" t="n">
         <v>0</v>
@@ -30490,10 +30490,10 @@
         <v>0</v>
       </c>
       <c r="M41" t="n">
-        <v>0</v>
+        <v>116.9787331327011</v>
       </c>
       <c r="N41" t="n">
-        <v>116.9787331327012</v>
+        <v>166.1290651424569</v>
       </c>
       <c r="O41" t="n">
         <v>0</v>
@@ -30502,7 +30502,7 @@
         <v>166.1290651424569</v>
       </c>
       <c r="Q41" t="n">
-        <v>166.1290651424569</v>
+        <v>0</v>
       </c>
       <c r="R41" t="n">
         <v>89.73190363910518</v>
@@ -30584,13 +30584,13 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>14.56549128550315</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
       </c>
       <c r="T42" t="n">
-        <v>14.56549128550355</v>
+        <v>0</v>
       </c>
       <c r="U42" t="n">
         <v>0</v>
@@ -30624,7 +30624,7 @@
         <v>151.5411742405149</v>
       </c>
       <c r="E43" t="n">
-        <v>150.4889240962943</v>
+        <v>166.1290651424569</v>
       </c>
       <c r="F43" t="n">
         <v>150.9558484244806</v>
@@ -30633,13 +30633,13 @@
         <v>166.1290651424569</v>
       </c>
       <c r="H43" t="n">
-        <v>157.7789187685189</v>
+        <v>166.1290651424569</v>
       </c>
       <c r="I43" t="n">
         <v>142.7610139533483</v>
       </c>
       <c r="J43" t="n">
-        <v>106.142283029922</v>
+        <v>59.456666199969</v>
       </c>
       <c r="K43" t="n">
         <v>0</v>
@@ -30654,7 +30654,7 @@
         <v>0</v>
       </c>
       <c r="O43" t="n">
-        <v>0</v>
+        <v>22.69532940985238</v>
       </c>
       <c r="P43" t="n">
         <v>0</v>
@@ -30694,28 +30694,28 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>166.1290651424569</v>
+        <v>166.129065142457</v>
       </c>
       <c r="C44" t="n">
-        <v>166.1290651424569</v>
+        <v>166.129065142457</v>
       </c>
       <c r="D44" t="n">
-        <v>166.1290651424569</v>
+        <v>166.129065142457</v>
       </c>
       <c r="E44" t="n">
-        <v>166.1290651424569</v>
+        <v>166.129065142457</v>
       </c>
       <c r="F44" t="n">
-        <v>166.1290651424569</v>
+        <v>166.129065142457</v>
       </c>
       <c r="G44" t="n">
-        <v>166.1290651424569</v>
+        <v>166.129065142457</v>
       </c>
       <c r="H44" t="n">
-        <v>166.1290651424569</v>
+        <v>166.129065142457</v>
       </c>
       <c r="I44" t="n">
-        <v>166.1290651424569</v>
+        <v>166.129065142457</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -30724,7 +30724,7 @@
         <v>0</v>
       </c>
       <c r="L44" t="n">
-        <v>166.1290651424569</v>
+        <v>166.129065142457</v>
       </c>
       <c r="M44" t="n">
         <v>0</v>
@@ -30733,37 +30733,37 @@
         <v>0</v>
       </c>
       <c r="O44" t="n">
-        <v>0</v>
+        <v>116.9787331327008</v>
       </c>
       <c r="P44" t="n">
-        <v>166.1290651424569</v>
+        <v>166.129065142457</v>
       </c>
       <c r="Q44" t="n">
-        <v>116.9787331327008</v>
+        <v>0</v>
       </c>
       <c r="R44" t="n">
         <v>89.73190363910518</v>
       </c>
       <c r="S44" t="n">
-        <v>166.1290651424569</v>
+        <v>166.129065142457</v>
       </c>
       <c r="T44" t="n">
-        <v>166.1290651424569</v>
+        <v>166.129065142457</v>
       </c>
       <c r="U44" t="n">
-        <v>166.1290651424569</v>
+        <v>166.129065142457</v>
       </c>
       <c r="V44" t="n">
-        <v>166.1290651424569</v>
+        <v>166.129065142457</v>
       </c>
       <c r="W44" t="n">
-        <v>166.1290651424569</v>
+        <v>166.129065142457</v>
       </c>
       <c r="X44" t="n">
-        <v>166.1290651424569</v>
+        <v>166.129065142457</v>
       </c>
       <c r="Y44" t="n">
-        <v>166.1290651424569</v>
+        <v>166.129065142457</v>
       </c>
     </row>
     <row r="45">
@@ -30821,7 +30821,7 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>14.56549128550315</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -30830,7 +30830,7 @@
         <v>0</v>
       </c>
       <c r="U45" t="n">
-        <v>14.5654912855033</v>
+        <v>0</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -30852,28 +30852,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>166.1290651424569</v>
+        <v>166.129065142457</v>
       </c>
       <c r="C46" t="n">
-        <v>166.1290651424569</v>
+        <v>166.129065142457</v>
       </c>
       <c r="D46" t="n">
         <v>151.5411742405149</v>
       </c>
       <c r="E46" t="n">
-        <v>150.4889240962943</v>
+        <v>166.129065142457</v>
       </c>
       <c r="F46" t="n">
         <v>150.9558484244806</v>
       </c>
       <c r="G46" t="n">
-        <v>166.1290651424569</v>
+        <v>166.129065142457</v>
       </c>
       <c r="H46" t="n">
         <v>157.7789187685189</v>
       </c>
       <c r="I46" t="n">
-        <v>142.7610139533483</v>
+        <v>166.129065142457</v>
       </c>
       <c r="J46" t="n">
         <v>59.456666199969</v>
@@ -30882,7 +30882,7 @@
         <v>0</v>
       </c>
       <c r="L46" t="n">
-        <v>0</v>
+        <v>7.677424594681497</v>
       </c>
       <c r="M46" t="n">
         <v>0</v>
@@ -30891,7 +30891,7 @@
         <v>0</v>
       </c>
       <c r="O46" t="n">
-        <v>46.68561682995295</v>
+        <v>0</v>
       </c>
       <c r="P46" t="n">
         <v>0</v>
@@ -30903,25 +30903,25 @@
         <v>148.0265635717656</v>
       </c>
       <c r="S46" t="n">
-        <v>166.1290651424569</v>
+        <v>166.129065142457</v>
       </c>
       <c r="T46" t="n">
-        <v>166.1290651424569</v>
+        <v>166.129065142457</v>
       </c>
       <c r="U46" t="n">
-        <v>166.1290651424569</v>
+        <v>166.129065142457</v>
       </c>
       <c r="V46" t="n">
-        <v>166.1290651424569</v>
+        <v>166.129065142457</v>
       </c>
       <c r="W46" t="n">
-        <v>166.1290651424569</v>
+        <v>166.129065142457</v>
       </c>
       <c r="X46" t="n">
-        <v>166.1290651424569</v>
+        <v>166.129065142457</v>
       </c>
       <c r="Y46" t="n">
-        <v>166.1290651424569</v>
+        <v>166.129065142457</v>
       </c>
     </row>
   </sheetData>
@@ -33980,7 +33980,7 @@
         <v>0</v>
       </c>
       <c r="M39" t="n">
-        <v>0</v>
+        <v>1.13686837721616e-13</v>
       </c>
       <c r="N39" t="n">
         <v>0</v>
@@ -34705,7 +34705,7 @@
         <v>351.3993667524709</v>
       </c>
       <c r="M2" t="n">
-        <v>397.2112790435232</v>
+        <v>391.5812958916321</v>
       </c>
       <c r="N2" t="n">
         <v>382.1528875633492</v>
@@ -34714,10 +34714,10 @@
         <v>308.0854388614484</v>
       </c>
       <c r="P2" t="n">
-        <v>129.4454135849937</v>
+        <v>230.4615115717709</v>
       </c>
       <c r="Q2" t="n">
-        <v>95.38611483488586</v>
+        <v>0</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
@@ -34775,10 +34775,10 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>60.86277427586479</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>231.8086389496855</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
         <v>369.5170153233491</v>
@@ -34790,10 +34790,10 @@
         <v>499.7914826407788</v>
       </c>
       <c r="O3" t="n">
-        <v>327.0597438018639</v>
+        <v>314.583763819639</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>305.147393207775</v>
       </c>
       <c r="Q3" t="n">
         <v>0</v>
@@ -34936,7 +34936,7 @@
         <v>72.72580229576329</v>
       </c>
       <c r="K5" t="n">
-        <v>242.5660323684674</v>
+        <v>141.5499343816905</v>
       </c>
       <c r="L5" t="n">
         <v>351.3993667524709</v>
@@ -34945,7 +34945,7 @@
         <v>397.2112790435232</v>
       </c>
       <c r="N5" t="n">
-        <v>281.1367895765723</v>
+        <v>382.1528875633492</v>
       </c>
       <c r="O5" t="n">
         <v>308.0854388614484</v>
@@ -35012,13 +35012,13 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>60.86277427586479</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>0</v>
+        <v>231.8086389496855</v>
       </c>
       <c r="L6" t="n">
-        <v>67.71115580677476</v>
+        <v>369.5170153233491</v>
       </c>
       <c r="M6" t="n">
         <v>489.93268031336</v>
@@ -35027,13 +35027,13 @@
         <v>499.7914826407788</v>
       </c>
       <c r="O6" t="n">
-        <v>396.1615664486372</v>
+        <v>387.9225180777285</v>
       </c>
       <c r="P6" t="n">
-        <v>305.147393207775</v>
+        <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>159.3652826117113</v>
+        <v>0</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35249,10 +35249,10 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>60.86277427586479</v>
       </c>
       <c r="K9" t="n">
-        <v>0</v>
+        <v>231.8086389496855</v>
       </c>
       <c r="L9" t="n">
         <v>369.5170153233491</v>
@@ -35261,16 +35261,16 @@
         <v>489.93268031336</v>
       </c>
       <c r="N9" t="n">
-        <v>359.864495386846</v>
+        <v>516.4299455789112</v>
       </c>
       <c r="O9" t="n">
         <v>396.1615664486372</v>
       </c>
       <c r="P9" t="n">
-        <v>305.147393207775</v>
+        <v>15.27581240187084</v>
       </c>
       <c r="Q9" t="n">
-        <v>159.3652826117113</v>
+        <v>0</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35407,13 +35407,13 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>72.72580229576329</v>
+        <v>96.0999526562691</v>
       </c>
       <c r="K11" t="n">
         <v>352.4871778922493</v>
       </c>
       <c r="L11" t="n">
-        <v>351.3993667524709</v>
+        <v>461.3205122762528</v>
       </c>
       <c r="M11" t="n">
         <v>397.2112790435232</v>
@@ -35422,16 +35422,16 @@
         <v>492.0740330871311</v>
       </c>
       <c r="O11" t="n">
-        <v>351.6488311066306</v>
+        <v>308.0854388614484</v>
       </c>
       <c r="P11" t="n">
-        <v>340.3826570955528</v>
+        <v>230.4615115717709</v>
       </c>
       <c r="Q11" t="n">
         <v>95.38611483488586</v>
       </c>
       <c r="R11" t="n">
-        <v>0</v>
+        <v>20.1892418846767</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35486,10 +35486,10 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>60.86277427586479</v>
       </c>
       <c r="K12" t="n">
-        <v>216.7613786244633</v>
+        <v>231.8086389496855</v>
       </c>
       <c r="L12" t="n">
         <v>369.5170153233491</v>
@@ -35504,7 +35504,7 @@
         <v>396.1615664486372</v>
       </c>
       <c r="P12" t="n">
-        <v>305.147393207775</v>
+        <v>229.2373586066879</v>
       </c>
       <c r="Q12" t="n">
         <v>159.3652826117113</v>
@@ -35644,28 +35644,28 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>116.2891945409454</v>
+        <v>72.72580229576329</v>
       </c>
       <c r="K14" t="n">
-        <v>352.4871778922493</v>
+        <v>242.5660323684674</v>
       </c>
       <c r="L14" t="n">
         <v>351.3993667524709</v>
       </c>
       <c r="M14" t="n">
-        <v>397.2112790435232</v>
+        <v>440.7746712887058</v>
       </c>
       <c r="N14" t="n">
-        <v>492.0740330871311</v>
+        <v>382.1528875633492</v>
       </c>
       <c r="O14" t="n">
-        <v>308.0854388614484</v>
+        <v>418.0065843852303</v>
       </c>
       <c r="P14" t="n">
         <v>340.3826570955528</v>
       </c>
       <c r="Q14" t="n">
-        <v>95.38611483488586</v>
+        <v>205.3072603586677</v>
       </c>
       <c r="R14" t="n">
         <v>0</v>
@@ -35726,7 +35726,7 @@
         <v>60.86277427586479</v>
       </c>
       <c r="K15" t="n">
-        <v>155.8986043485986</v>
+        <v>231.8086389496855</v>
       </c>
       <c r="L15" t="n">
         <v>369.5170153233491</v>
@@ -35744,7 +35744,7 @@
         <v>305.147393207775</v>
       </c>
       <c r="Q15" t="n">
-        <v>159.3652826117113</v>
+        <v>83.45524801062412</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35881,19 +35881,19 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>72.72580229576329</v>
+        <v>243.8148290990552</v>
       </c>
       <c r="K17" t="n">
         <v>413.6550591717594</v>
       </c>
       <c r="L17" t="n">
-        <v>522.4883935557629</v>
+        <v>351.3993667524709</v>
       </c>
       <c r="M17" t="n">
         <v>397.2112790435232</v>
       </c>
       <c r="N17" t="n">
-        <v>382.1528875633492</v>
+        <v>413.3016627732927</v>
       </c>
       <c r="O17" t="n">
         <v>308.0854388614484</v>
@@ -35902,7 +35902,7 @@
         <v>230.4615115717709</v>
       </c>
       <c r="Q17" t="n">
-        <v>126.5348900448298</v>
+        <v>95.38611483488586</v>
       </c>
       <c r="R17" t="n">
         <v>0</v>
@@ -35978,10 +35978,10 @@
         <v>396.1615664486372</v>
       </c>
       <c r="P18" t="n">
-        <v>305.147393207775</v>
+        <v>229.237358606687</v>
       </c>
       <c r="Q18" t="n">
-        <v>83.45524801062366</v>
+        <v>159.3652826117113</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36021,7 +36021,7 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>3.249310340277443</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
@@ -36045,7 +36045,7 @@
         <v>33.9436239844883</v>
       </c>
       <c r="L19" t="n">
-        <v>101.6233125255146</v>
+        <v>104.872622865792</v>
       </c>
       <c r="M19" t="n">
         <v>119.1853597248502</v>
@@ -36127,22 +36127,22 @@
         <v>351.3993667524709</v>
       </c>
       <c r="M20" t="n">
-        <v>397.2112790435232</v>
+        <v>568.3003058468151</v>
       </c>
       <c r="N20" t="n">
         <v>382.1528875633492</v>
       </c>
       <c r="O20" t="n">
-        <v>479.1744656647404</v>
+        <v>308.0854388614484</v>
       </c>
       <c r="P20" t="n">
-        <v>401.5505383750628</v>
+        <v>351.3421904208206</v>
       </c>
       <c r="Q20" t="n">
-        <v>126.5348900448298</v>
+        <v>95.38611483488586</v>
       </c>
       <c r="R20" t="n">
-        <v>0</v>
+        <v>81.35712316418676</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36197,10 +36197,10 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>60.86277427586479</v>
       </c>
       <c r="K21" t="n">
-        <v>216.7613786244633</v>
+        <v>231.8086389496855</v>
       </c>
       <c r="L21" t="n">
         <v>369.5170153233491</v>
@@ -36212,7 +36212,7 @@
         <v>516.4299455789112</v>
       </c>
       <c r="O21" t="n">
-        <v>396.1615664486372</v>
+        <v>320.2515318475503</v>
       </c>
       <c r="P21" t="n">
         <v>305.147393207775</v>
@@ -36355,19 +36355,19 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>72.72580229576329</v>
+        <v>243.8148290990552</v>
       </c>
       <c r="K23" t="n">
         <v>242.5660323684674</v>
       </c>
       <c r="L23" t="n">
-        <v>522.4883935557629</v>
+        <v>351.3993667524709</v>
       </c>
       <c r="M23" t="n">
-        <v>568.3003058468151</v>
+        <v>397.2112790435232</v>
       </c>
       <c r="N23" t="n">
-        <v>382.1528875633492</v>
+        <v>553.2419143666411</v>
       </c>
       <c r="O23" t="n">
         <v>339.2342140713922</v>
@@ -36437,7 +36437,7 @@
         <v>60.86277427586479</v>
       </c>
       <c r="K24" t="n">
-        <v>155.8986043485986</v>
+        <v>231.8086389496855</v>
       </c>
       <c r="L24" t="n">
         <v>369.5170153233491</v>
@@ -36455,7 +36455,7 @@
         <v>305.147393207775</v>
       </c>
       <c r="Q24" t="n">
-        <v>159.3652826117113</v>
+        <v>83.45524801062366</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36522,7 +36522,7 @@
         <v>101.6233125255146</v>
       </c>
       <c r="M25" t="n">
-        <v>119.1853597248502</v>
+        <v>122.4346700651277</v>
       </c>
       <c r="N25" t="n">
         <v>119.6185270197983</v>
@@ -36534,7 +36534,7 @@
         <v>63.604529018321</v>
       </c>
       <c r="Q25" t="n">
-        <v>3.249310340277364</v>
+        <v>0</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36595,7 +36595,7 @@
         <v>186.155967803972</v>
       </c>
       <c r="K26" t="n">
-        <v>348.436402162823</v>
+        <v>355.9961978766761</v>
       </c>
       <c r="L26" t="n">
         <v>464.8295322606797</v>
@@ -36607,7 +36607,7 @@
         <v>495.583053071558</v>
       </c>
       <c r="O26" t="n">
-        <v>421.5156043696572</v>
+        <v>413.9558086558043</v>
       </c>
       <c r="P26" t="n">
         <v>343.8916770799797</v>
@@ -36616,7 +36616,7 @@
         <v>208.8162803430946</v>
       </c>
       <c r="R26" t="n">
-        <v>23.69826186910356</v>
+        <v>23.69826186910355</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36750,7 +36750,7 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>53.97349930823975</v>
+        <v>53.97349930823973</v>
       </c>
       <c r="K28" t="n">
         <v>147.373789492697</v>
@@ -36771,7 +36771,7 @@
         <v>177.0346945265297</v>
       </c>
       <c r="Q28" t="n">
-        <v>75.27819757536089</v>
+        <v>75.27819757536088</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36832,7 +36832,7 @@
         <v>186.155967803972</v>
       </c>
       <c r="K29" t="n">
-        <v>355.9961978766762</v>
+        <v>355.9961978766761</v>
       </c>
       <c r="L29" t="n">
         <v>464.8295322606797</v>
@@ -36844,7 +36844,7 @@
         <v>495.583053071558</v>
       </c>
       <c r="O29" t="n">
-        <v>421.5156043696572</v>
+        <v>413.9558086558043</v>
       </c>
       <c r="P29" t="n">
         <v>343.8916770799797</v>
@@ -36853,7 +36853,7 @@
         <v>208.8162803430946</v>
       </c>
       <c r="R29" t="n">
-        <v>16.13846615525079</v>
+        <v>23.69826186910353</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36987,7 +36987,7 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>53.97349930823975</v>
+        <v>53.97349930823972</v>
       </c>
       <c r="K31" t="n">
         <v>147.373789492697</v>
@@ -36996,19 +36996,19 @@
         <v>215.0534780337234</v>
       </c>
       <c r="M31" t="n">
-        <v>232.615525233059</v>
+        <v>232.6155252330589</v>
       </c>
       <c r="N31" t="n">
         <v>233.0486925280071</v>
       </c>
       <c r="O31" t="n">
-        <v>212.8883942917337</v>
+        <v>212.8883942917336</v>
       </c>
       <c r="P31" t="n">
         <v>177.0346945265297</v>
       </c>
       <c r="Q31" t="n">
-        <v>75.27819757536089</v>
+        <v>75.27819757536086</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37066,31 +37066,31 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>72.72580229576329</v>
+        <v>214.4616924433481</v>
       </c>
       <c r="K32" t="n">
-        <v>242.5660323684674</v>
+        <v>384.3019225160523</v>
       </c>
       <c r="L32" t="n">
-        <v>493.1352569000559</v>
+        <v>413.2796217402113</v>
       </c>
       <c r="M32" t="n">
-        <v>538.9471691911081</v>
+        <v>397.2112790435232</v>
       </c>
       <c r="N32" t="n">
-        <v>523.8887777109342</v>
+        <v>382.1528875633492</v>
       </c>
       <c r="O32" t="n">
         <v>449.8213290090333</v>
       </c>
       <c r="P32" t="n">
-        <v>292.3417665595098</v>
+        <v>372.1974017193558</v>
       </c>
       <c r="Q32" t="n">
-        <v>237.1220049824708</v>
+        <v>237.1220049824707</v>
       </c>
       <c r="R32" t="n">
-        <v>52.00398650847973</v>
+        <v>52.00398650847967</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37227,25 +37227,25 @@
         <v>0</v>
       </c>
       <c r="K34" t="n">
-        <v>33.9436239844883</v>
+        <v>98.21740554338575</v>
       </c>
       <c r="L34" t="n">
-        <v>243.3592026730996</v>
+        <v>101.6233125255146</v>
       </c>
       <c r="M34" t="n">
         <v>119.1853597248502</v>
       </c>
       <c r="N34" t="n">
-        <v>119.6185270197983</v>
+        <v>261.3544171673832</v>
       </c>
       <c r="O34" t="n">
-        <v>241.1941189311098</v>
+        <v>99.45822878352493</v>
       </c>
       <c r="P34" t="n">
-        <v>63.604529018321</v>
+        <v>205.3404191659059</v>
       </c>
       <c r="Q34" t="n">
-        <v>64.27378155889657</v>
+        <v>0</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37306,22 +37306,22 @@
         <v>72.72580229576329</v>
       </c>
       <c r="K35" t="n">
-        <v>242.5660323684674</v>
+        <v>408.6950975109244</v>
       </c>
       <c r="L35" t="n">
-        <v>351.3993667524709</v>
+        <v>468.3780998851724</v>
       </c>
       <c r="M35" t="n">
-        <v>563.3403441859801</v>
+        <v>397.2112790435232</v>
       </c>
       <c r="N35" t="n">
-        <v>499.1316206960506</v>
+        <v>382.1528875633492</v>
       </c>
       <c r="O35" t="n">
-        <v>474.2145040039054</v>
+        <v>308.0854388614484</v>
       </c>
       <c r="P35" t="n">
-        <v>230.4615115717709</v>
+        <v>396.5905767142278</v>
       </c>
       <c r="Q35" t="n">
         <v>95.38611483488586</v>
@@ -37473,7 +37473,7 @@
         <v>119.1853597248502</v>
       </c>
       <c r="N37" t="n">
-        <v>148.20164227906</v>
+        <v>119.6185270197983</v>
       </c>
       <c r="O37" t="n">
         <v>99.45822878352493</v>
@@ -37482,10 +37482,10 @@
         <v>63.604529018321</v>
       </c>
       <c r="Q37" t="n">
-        <v>0</v>
+        <v>46.68561682995292</v>
       </c>
       <c r="R37" t="n">
-        <v>18.10250157069137</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
@@ -37540,7 +37540,7 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>72.72580229576329</v>
+        <v>238.8548674382202</v>
       </c>
       <c r="K38" t="n">
         <v>408.6950975109244</v>
@@ -37552,19 +37552,19 @@
         <v>397.2112790435232</v>
       </c>
       <c r="N38" t="n">
-        <v>422.7344591926982</v>
+        <v>382.1528875633492</v>
       </c>
       <c r="O38" t="n">
-        <v>474.2145040039054</v>
+        <v>308.0854388614484</v>
       </c>
       <c r="P38" t="n">
         <v>230.4615115717709</v>
       </c>
       <c r="Q38" t="n">
-        <v>95.38611483488586</v>
+        <v>212.3648479675866</v>
       </c>
       <c r="R38" t="n">
-        <v>76.39716150335175</v>
+        <v>0</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37628,10 +37628,10 @@
         <v>369.5170153233491</v>
       </c>
       <c r="M39" t="n">
-        <v>489.93268031336</v>
+        <v>489.9326803133602</v>
       </c>
       <c r="N39" t="n">
-        <v>516.4299455789111</v>
+        <v>516.4299455789112</v>
       </c>
       <c r="O39" t="n">
         <v>396.1615664486372</v>
@@ -37692,19 +37692,19 @@
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>8.350146373938031</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>23.36805118910868</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
       </c>
       <c r="K40" t="n">
-        <v>33.9436239844883</v>
+        <v>57.26118962533257</v>
       </c>
       <c r="L40" t="n">
-        <v>139.9587829815296</v>
+        <v>101.6233125255146</v>
       </c>
       <c r="M40" t="n">
         <v>119.1853597248502</v>
@@ -37786,10 +37786,10 @@
         <v>351.3993667524709</v>
       </c>
       <c r="M41" t="n">
-        <v>397.2112790435232</v>
+        <v>514.1900121762243</v>
       </c>
       <c r="N41" t="n">
-        <v>499.1316206960504</v>
+        <v>548.2819527058061</v>
       </c>
       <c r="O41" t="n">
         <v>308.0854388614484</v>
@@ -37798,7 +37798,7 @@
         <v>396.5905767142278</v>
       </c>
       <c r="Q41" t="n">
-        <v>261.5151799773428</v>
+        <v>95.38611483488586</v>
       </c>
       <c r="R41" t="n">
         <v>0</v>
@@ -37920,7 +37920,7 @@
         <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>15.6401410461626</v>
       </c>
       <c r="F43" t="n">
         <v>0</v>
@@ -37929,13 +37929,13 @@
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>8.350146373938031</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>46.68561682995298</v>
+        <v>0</v>
       </c>
       <c r="K43" t="n">
         <v>33.9436239844883</v>
@@ -37950,7 +37950,7 @@
         <v>119.6185270197983</v>
       </c>
       <c r="O43" t="n">
-        <v>99.45822878352493</v>
+        <v>122.1535581933773</v>
       </c>
       <c r="P43" t="n">
         <v>63.604529018321</v>
@@ -38020,7 +38020,7 @@
         <v>242.5660323684674</v>
       </c>
       <c r="L44" t="n">
-        <v>517.5284318949278</v>
+        <v>517.528431894928</v>
       </c>
       <c r="M44" t="n">
         <v>397.2112790435232</v>
@@ -38029,13 +38029,13 @@
         <v>382.1528875633492</v>
       </c>
       <c r="O44" t="n">
-        <v>308.0854388614484</v>
+        <v>425.0641719941493</v>
       </c>
       <c r="P44" t="n">
-        <v>396.5905767142278</v>
+        <v>396.5905767142279</v>
       </c>
       <c r="Q44" t="n">
-        <v>212.3648479675866</v>
+        <v>95.38611483488586</v>
       </c>
       <c r="R44" t="n">
         <v>0</v>
@@ -38157,7 +38157,7 @@
         <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>15.64014104616263</v>
       </c>
       <c r="F46" t="n">
         <v>0</v>
@@ -38169,7 +38169,7 @@
         <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>23.36805118910871</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -38178,7 +38178,7 @@
         <v>33.9436239844883</v>
       </c>
       <c r="L46" t="n">
-        <v>101.6233125255146</v>
+        <v>109.3007371201961</v>
       </c>
       <c r="M46" t="n">
         <v>119.1853597248502</v>
@@ -38187,7 +38187,7 @@
         <v>119.6185270197983</v>
       </c>
       <c r="O46" t="n">
-        <v>146.1438456134779</v>
+        <v>99.45822878352493</v>
       </c>
       <c r="P46" t="n">
         <v>63.604529018321</v>
